--- a/project/表單欄位規劃.xlsx
+++ b/project/表單欄位規劃.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>EMAIL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -32,10 +32,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>小名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>外送地址</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -44,10 +40,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>付款2-會員卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>客戶點餐頁面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -129,6 +121,54 @@
   </si>
   <si>
     <t>店員資料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coustmer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shownam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>creditcard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>membercard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顯示名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>付款2-會員儲值卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜單編號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -152,7 +192,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -161,7 +201,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -178,9 +224,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -485,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -499,8 +546,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>14</v>
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -514,99 +564,134 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
       <c r="G2" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="D13" t="s">
         <v>16</v>
       </c>
-      <c r="B11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="E13" t="s">
         <v>17</v>
       </c>
-      <c r="D11" t="s">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E11" t="s">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="B17" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="C17" t="s">
         <v>21</v>
       </c>
-      <c r="B15" t="s">
+      <c r="D17" t="s">
         <v>22</v>
       </c>
-      <c r="C15" t="s">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D15" t="s">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/project/表單欄位規劃.xlsx
+++ b/project/表單欄位規劃.xlsx
@@ -10,11 +10,12 @@
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211" concurrentCalc="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="67">
   <si>
     <t>EMAIL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -169,6 +170,118 @@
   </si>
   <si>
     <t>菜名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>employee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emp_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emp_level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emp_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emp_sname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emp_phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>or_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>or_from</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>or_peo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>or_total</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>數量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狀態</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>or_sat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>or_menu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>or_quantity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食材編號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食材數量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>進貨日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>st_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>st_quantity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>st_date</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -532,17 +645,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -634,6 +751,9 @@
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -643,55 +763,156 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>15</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D14" t="s">
         <v>16</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>19</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>20</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>21</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D18" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="E18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="B21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/project/表單欄位規劃.xlsx
+++ b/project/表單欄位規劃.xlsx
@@ -10,21 +10,16 @@
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="81">
   <si>
     <t>EMAIL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>電話</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -282,6 +277,66 @@
   </si>
   <si>
     <t>st_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>123@nknu.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李芃芃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>澎澎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高師大門口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>豬肉漢堡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ham01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e00001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>店長</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭李李</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PONG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o201809240001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收機遇定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>會員編號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>製作中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ham_pig</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -289,7 +344,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -304,8 +359,16 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -314,13 +377,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -334,16 +415,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -645,10 +732,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -663,261 +750,342 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="4">
+        <v>91234567</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="B9" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" s="4">
+        <v>92222222</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="4">
+        <v>556</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B32" s="4">
+        <v>50</v>
+      </c>
+      <c r="C32" s="4">
+        <v>20180923</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="B35" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C35" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D35" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E35" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" t="s">
-        <v>52</v>
-      </c>
-      <c r="E19" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" t="s">
-        <v>58</v>
-      </c>
-      <c r="C23" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>61</v>
-      </c>
-      <c r="B26" t="s">
-        <v>62</v>
-      </c>
-      <c r="C26" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>64</v>
-      </c>
-      <c r="B27" t="s">
-        <v>65</v>
-      </c>
-      <c r="C27" t="s">
-        <v>66</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A4" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/project/表單欄位規劃.xlsx
+++ b/project/表單欄位規劃.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="83">
   <si>
     <t>EMAIL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -324,10 +324,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>收機遇定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>會員編號</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -337,6 +333,18 @@
   </si>
   <si>
     <t>ham_pig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o201809250001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手機預定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>店內點餐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -488,7 +496,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -523,7 +531,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -732,10 +740,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -819,8 +827,12 @@
       <c r="E4" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+      <c r="F4" s="4">
+        <v>11111</v>
+      </c>
+      <c r="G4" s="4">
+        <v>11111</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -854,229 +866,261 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B16" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E16" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B17" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C17" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D17" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E17" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B18" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C18" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D18" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E18" s="4">
         <v>92222222</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B22" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C22" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D22" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E22" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B23" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C23" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D23" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E23" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B24" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="D24" s="4">
+        <v>556</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D22" s="4">
-        <v>556</v>
-      </c>
-      <c r="E22" s="4" t="s">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C27" s="4">
+      <c r="B36" s="4">
+        <v>50</v>
+      </c>
+      <c r="C36" s="4">
+        <v>20180923</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B32" s="4">
-        <v>50</v>
-      </c>
-      <c r="C32" s="4">
-        <v>20180923</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D40" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E40" s="1" t="s">
         <v>10</v>
       </c>
     </row>

--- a/project/表單欄位規劃.xlsx
+++ b/project/表單欄位規劃.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="99">
   <si>
     <t>EMAIL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -345,6 +345,70 @@
   </si>
   <si>
     <t>店內點餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e00002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>經理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>456@nknu.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戴姿姿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>國手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高師大後門口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>db01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>培根蛋餅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>費卿卿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小哥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待確定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>無會員</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o201809270009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鍋燒麵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鮪魚三民治</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eggcookie</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -496,7 +560,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -531,7 +595,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -740,10 +804,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -752,7 +816,7 @@
     <col min="2" max="2" width="11.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.875" bestFit="1" customWidth="1"/>
   </cols>
@@ -834,293 +898,359 @@
         <v>11111</v>
       </c>
     </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1234567</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F5" s="4">
+        <v>2222</v>
+      </c>
+      <c r="G5" s="4">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>38</v>
+      <c r="A9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>37</v>
+      <c r="A10" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B12" s="4" t="s">
+      <c r="A11" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="4">
+        <v>92222222</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E17" s="4">
+        <v>8777777</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" s="4">
+        <v>556</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D23" s="4">
+        <v>87</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E18" s="4">
-        <v>92222222</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+      <c r="C28" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D24" s="4">
-        <v>556</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>58</v>
+      <c r="B29" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C29" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="C30" s="4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>59</v>
+      <c r="A33" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>62</v>
+      <c r="A34" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>65</v>
+      <c r="A35" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35" s="4">
+        <v>50</v>
+      </c>
+      <c r="C35" s="4">
+        <v>20180923</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="B36" s="4">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="C36" s="4">
-        <v>20180923</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
+        <v>20180927</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B39" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E39" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1128,8 +1258,9 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A4" r:id="rId1"/>
+    <hyperlink ref="A5" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/project/表單欄位規劃.xlsx
+++ b/project/表單欄位規劃.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211" concurrentCalc="0"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="119">
   <si>
     <t>EMAIL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -252,10 +252,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>stock</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>食材編號</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -268,18 +264,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>st_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>st_quantity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>st_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>123@nknu.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -409,6 +393,102 @@
   </si>
   <si>
     <t>eggcookie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustomerId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>會員編號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c000001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c000002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>註冊時間</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>singuptime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜單食材消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menuuse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本食材用量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漢堡</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>美乃滋</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔬菜</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>番茄</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>use_number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>material</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ma_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ma_quantity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ma_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>員編</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狀態</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用完</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stsatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>進貨數量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add_quantity</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -416,7 +496,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="179" formatCode="0_ "/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -439,6 +522,41 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -446,12 +564,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -477,6 +589,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -491,14 +609,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -560,7 +694,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -595,7 +729,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -804,10 +938,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -819,446 +953,690 @@
     <col min="5" max="5" width="13.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5" customWidth="1"/>
+    <col min="9" max="9" width="18.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="I2" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="I3" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="3">
+        <v>91234567</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" s="3">
+        <v>11111</v>
+      </c>
+      <c r="H4" s="3">
+        <v>11111</v>
+      </c>
+      <c r="I4" s="9">
+        <v>201809281054</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1234567</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G5" s="3">
+        <v>2222</v>
+      </c>
+      <c r="H5" s="3">
+        <v>222</v>
+      </c>
+      <c r="I5" s="9">
+        <v>201809281055</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="4">
-        <v>91234567</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="D10" s="11"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="3">
+        <v>92222222</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17" s="3">
+        <v>8777777</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="3">
+        <v>556</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D23" s="3">
+        <v>87</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="M26" s="15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="M27" s="16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="3">
+        <v>2</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I28" s="3">
+        <v>2</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="K28" s="3">
+        <v>556</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C29" s="3">
+        <v>1</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="I29" s="3">
+        <v>1</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="K29" s="3">
+        <v>556</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" s="3">
+        <v>1</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="I30" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" s="3">
+        <v>50</v>
+      </c>
+      <c r="D35" s="3">
+        <v>20180923</v>
+      </c>
+      <c r="E35" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C36" s="3">
+        <v>100</v>
+      </c>
+      <c r="D36" s="3">
+        <v>20180927</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" s="3">
+        <v>50</v>
+      </c>
+      <c r="D37" s="3">
+        <v>20180928</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F4" s="4">
-        <v>11111</v>
-      </c>
-      <c r="G4" s="4">
-        <v>11111</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B5" s="4">
-        <v>1234567</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F5" s="4">
-        <v>2222</v>
-      </c>
-      <c r="G5" s="4">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D16" s="4" t="s">
+      <c r="B42" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E16" s="4">
-        <v>92222222</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="E17" s="4">
-        <v>8777777</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="3" t="s">
+      <c r="C42" s="14">
+        <v>1</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="F42" s="12"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="14">
+        <v>5</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="F43" s="12"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C44" s="14">
         <v>20</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D22" s="4">
-        <v>556</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D23" s="4">
-        <v>87</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C28" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C29" s="4">
+      <c r="D44" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="F44" s="12"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C45" s="14">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C30" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B35" s="4">
-        <v>50</v>
-      </c>
-      <c r="C35" s="4">
-        <v>20180923</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B36" s="4">
-        <v>100</v>
-      </c>
-      <c r="C36" s="4">
-        <v>20180927</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="D45" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="F45" s="13"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B49" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C49" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D49" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E49" s="6" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1"/>
-    <hyperlink ref="A5" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId1"/>
+    <hyperlink ref="B5" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>

--- a/project/表單欄位規劃.xlsx
+++ b/project/表單欄位規劃.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="372">
   <si>
     <t>EMAIL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -280,10 +280,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ham01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>店長</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -308,10 +304,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ham_pig</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>o201809250001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -369,10 +361,6 @@
   </si>
   <si>
     <t>鮪魚三民治</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>eggcookie</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1077,6 +1065,246 @@
   <si>
     <t>吐司</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>食材名稱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ma_name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛋餅皮</t>
+  </si>
+  <si>
+    <t>油</t>
+  </si>
+  <si>
+    <t>肉鬆</t>
+  </si>
+  <si>
+    <t>九層塔</t>
+  </si>
+  <si>
+    <t>玉米粒</t>
+  </si>
+  <si>
+    <t>蔬菜</t>
+  </si>
+  <si>
+    <t>火腿</t>
+  </si>
+  <si>
+    <t>豬肉排</t>
+  </si>
+  <si>
+    <t>美乃滋</t>
+  </si>
+  <si>
+    <t>番茄</t>
+  </si>
+  <si>
+    <t>香雞排</t>
+  </si>
+  <si>
+    <t>照燒豬肉片</t>
+  </si>
+  <si>
+    <t>里肌肉片</t>
+  </si>
+  <si>
+    <t>厚豬排</t>
+  </si>
+  <si>
+    <t>卡啦雞腿排</t>
+  </si>
+  <si>
+    <t>勁辣雞腿排</t>
+  </si>
+  <si>
+    <t>草莓醬</t>
+  </si>
+  <si>
+    <t>花生醬</t>
+  </si>
+  <si>
+    <t>巧克力醬</t>
+  </si>
+  <si>
+    <t>藍莓醬</t>
+  </si>
+  <si>
+    <t>抹茶醬</t>
+  </si>
+  <si>
+    <t>奶酥醬</t>
+  </si>
+  <si>
+    <t>奶油</t>
+  </si>
+  <si>
+    <t>厚片</t>
+  </si>
+  <si>
+    <t>起司絲</t>
+  </si>
+  <si>
+    <t>吐司</t>
+  </si>
+  <si>
+    <t>小黃瓜</t>
+  </si>
+  <si>
+    <t>細薯條</t>
+  </si>
+  <si>
+    <t>小雞塊</t>
+  </si>
+  <si>
+    <t>寬薯條</t>
+  </si>
+  <si>
+    <t>魚板</t>
+  </si>
+  <si>
+    <t>貢丸</t>
+  </si>
+  <si>
+    <t>小白菜</t>
+  </si>
+  <si>
+    <t>沙茶醬</t>
+  </si>
+  <si>
+    <t>泡麵</t>
+  </si>
+  <si>
+    <t>冬粉</t>
+  </si>
+  <si>
+    <t>雞絲麵</t>
+  </si>
+  <si>
+    <t>烏龍麵</t>
+  </si>
+  <si>
+    <t>意麵</t>
+  </si>
+  <si>
+    <t>紅茶包</t>
+  </si>
+  <si>
+    <t>奶精</t>
+  </si>
+  <si>
+    <t>鮮奶</t>
+  </si>
+  <si>
+    <t>咖啡粉</t>
+  </si>
+  <si>
+    <t>阿華田粉</t>
+  </si>
+  <si>
+    <t>蔓越莓汁</t>
+  </si>
+  <si>
+    <t>醬油</t>
+  </si>
+  <si>
+    <t>醬油膏</t>
+  </si>
+  <si>
+    <t>辣椒醬</t>
+  </si>
+  <si>
+    <t>番茄醬</t>
+  </si>
+  <si>
+    <t>胡椒粉</t>
+  </si>
+  <si>
+    <t>小紙盒</t>
+  </si>
+  <si>
+    <t>中紙盒</t>
+  </si>
+  <si>
+    <t>紙袋</t>
+  </si>
+  <si>
+    <t>紙碗</t>
+  </si>
+  <si>
+    <t>中紙杯</t>
+  </si>
+  <si>
+    <t>大紙杯</t>
+  </si>
+  <si>
+    <t>小環保袋</t>
+  </si>
+  <si>
+    <t>中環保袋</t>
+  </si>
+  <si>
+    <t>蛋</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>籃</t>
+  </si>
+  <si>
+    <t>顆</t>
+  </si>
+  <si>
+    <t>包</t>
+  </si>
+  <si>
+    <t>張</t>
+  </si>
+  <si>
+    <t>罐</t>
+  </si>
+  <si>
+    <t>cc</t>
+  </si>
+  <si>
+    <t>克</t>
+  </si>
+  <si>
+    <t>2500克6顆</t>
+  </si>
+  <si>
+    <t>片</t>
+  </si>
+  <si>
+    <t>袋</t>
+  </si>
+  <si>
+    <t>個</t>
+  </si>
+  <si>
+    <t>盒</t>
+  </si>
+  <si>
+    <t>100克1顆</t>
+  </si>
+  <si>
+    <t>200克1根</t>
+  </si>
+  <si>
+    <t>根</t>
+  </si>
+  <si>
+    <t>塊</t>
+  </si>
+  <si>
+    <t>30克1把</t>
+  </si>
+  <si>
+    <t>箱</t>
   </si>
 </sst>
 </file>
@@ -1519,10 +1747,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M179"/>
+  <dimension ref="A1:M260"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A163" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G177" sqref="G177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1531,7 +1759,7 @@
     <col min="2" max="2" width="15.625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.375" style="2" customWidth="1"/>
     <col min="6" max="6" width="17.125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.875" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.5" style="2" customWidth="1"/>
@@ -1549,7 +1777,7 @@
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>0</v>
@@ -1573,12 +1801,12 @@
         <v>34</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>25</v>
@@ -1602,18 +1830,18 @@
         <v>32</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>61</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>62</v>
@@ -1636,22 +1864,22 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B5" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="D5" s="7" t="s">
+      <c r="F5" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="G5" s="7">
         <v>22222</v>
@@ -1665,22 +1893,22 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>115</v>
-      </c>
       <c r="C6" s="9" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="G6" s="7">
         <v>33333</v>
@@ -1694,22 +1922,22 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>116</v>
-      </c>
       <c r="C7" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>124</v>
-      </c>
       <c r="E7" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="G7" s="7">
         <v>44444</v>
@@ -1723,22 +1951,22 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>117</v>
-      </c>
       <c r="C8" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>125</v>
-      </c>
       <c r="E8" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="G8" s="7">
         <v>55555</v>
@@ -1794,87 +2022,87 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="D14" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>69</v>
-      </c>
       <c r="E14" s="9" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C16" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>131</v>
-      </c>
       <c r="E16" s="9" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B18" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>130</v>
-      </c>
       <c r="D18" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -1896,7 +2124,7 @@
         <v>20</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>21</v>
@@ -1905,7 +2133,7 @@
         <v>53</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
@@ -1919,7 +2147,7 @@
         <v>49</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>50</v>
@@ -1928,119 +2156,119 @@
         <v>54</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E23" s="7">
         <v>556</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B24" s="7" t="s">
-        <v>76</v>
-      </c>
       <c r="C24" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E24" s="7">
         <v>87</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E25" s="7">
         <v>100</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E26" s="7">
         <v>948</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E27" s="7">
         <v>566</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G27" s="7"/>
     </row>
@@ -2084,7 +2312,7 @@
         <v>53</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
@@ -2119,12 +2347,12 @@
         <v>54</v>
       </c>
       <c r="M31" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>65</v>
@@ -2133,10 +2361,10 @@
         <v>2</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H32" s="7" t="s">
         <v>65</v>
@@ -2145,68 +2373,68 @@
         <v>2</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K32" s="7">
         <v>556</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M32" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C33" s="7">
         <v>1</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I33" s="7">
         <v>1</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K33" s="7">
         <v>556</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M33" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C34" s="7">
         <v>1</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I34" s="7">
         <v>1</v>
@@ -2228,90 +2456,12 @@
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A40" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C41" s="7">
-        <v>50</v>
-      </c>
-      <c r="D41" s="7">
-        <v>20180923</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="C42" s="7">
-        <v>100</v>
-      </c>
-      <c r="D42" s="7">
-        <v>20180927</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C43" s="7">
-        <v>50</v>
-      </c>
-      <c r="D43" s="7">
-        <v>20180928</v>
-      </c>
-    </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
@@ -2321,8 +2471,11 @@
       <c r="B46" s="3" t="s">
         <v>58</v>
       </c>
+      <c r="C46" s="4" t="s">
+        <v>293</v>
+      </c>
       <c r="D46" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
@@ -2330,21 +2483,20 @@
         <v>38</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>294</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>73</v>
-      </c>
+      <c r="A48" s="7"/>
+      <c r="B48" s="7"/>
       <c r="C48" s="11" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D48" s="11">
         <v>1</v>
@@ -2355,7 +2507,7 @@
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="11" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D49" s="11">
         <v>5</v>
@@ -2364,7 +2516,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" s="11" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D50" s="11">
         <v>20</v>
@@ -2373,7 +2525,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" s="11" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D51" s="11">
         <v>1</v>
@@ -2419,16 +2571,16 @@
         <v>35</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
@@ -2436,38 +2588,38 @@
         <v>38</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C60" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="7"/>
       <c r="B61" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D61" s="7">
         <v>20</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="7"/>
       <c r="B62" s="7"/>
       <c r="C62" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D62" s="7">
         <v>25</v>
@@ -2477,7 +2629,7 @@
       <c r="A63" s="7"/>
       <c r="B63" s="7"/>
       <c r="C63" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D63" s="7">
         <v>25</v>
@@ -2487,7 +2639,7 @@
       <c r="A64" s="7"/>
       <c r="B64" s="7"/>
       <c r="C64" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D64" s="7">
         <v>30</v>
@@ -2497,7 +2649,7 @@
       <c r="A65" s="7"/>
       <c r="B65" s="7"/>
       <c r="C65" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D65" s="7">
         <v>30</v>
@@ -2506,7 +2658,7 @@
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B66" s="7"/>
       <c r="C66" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D66" s="7">
         <v>30</v>
@@ -2515,7 +2667,7 @@
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B67" s="7"/>
       <c r="C67" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D67" s="7">
         <v>30</v>
@@ -2524,7 +2676,7 @@
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B68" s="7"/>
       <c r="C68" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D68" s="7">
         <v>35</v>
@@ -2533,7 +2685,7 @@
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B69" s="7"/>
       <c r="C69" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D69" s="7">
         <v>40</v>
@@ -2542,7 +2694,7 @@
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B70" s="7"/>
       <c r="C70" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D70" s="7">
         <v>45</v>
@@ -2551,7 +2703,7 @@
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B71" s="7"/>
       <c r="C71" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D71" s="7">
         <v>45</v>
@@ -2559,10 +2711,10 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B72" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D72" s="7">
         <v>30</v>
@@ -2571,7 +2723,7 @@
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B73" s="7"/>
       <c r="C73" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D73" s="7">
         <v>30</v>
@@ -2580,7 +2732,7 @@
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B74" s="7"/>
       <c r="C74" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D74" s="7">
         <v>30</v>
@@ -2589,7 +2741,7 @@
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B75" s="7"/>
       <c r="C75" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D75" s="7">
         <v>35</v>
@@ -2598,7 +2750,7 @@
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B76" s="7"/>
       <c r="C76" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D76" s="7">
         <v>40</v>
@@ -2607,7 +2759,7 @@
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B77" s="7"/>
       <c r="C77" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D77" s="7">
         <v>40</v>
@@ -2616,7 +2768,7 @@
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B78" s="7"/>
       <c r="C78" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D78" s="7">
         <v>45</v>
@@ -2625,7 +2777,7 @@
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B79" s="7"/>
       <c r="C79" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D79" s="7">
         <v>50</v>
@@ -2634,7 +2786,7 @@
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B80" s="7"/>
       <c r="C80" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D80" s="7">
         <v>50</v>
@@ -2643,7 +2795,7 @@
     <row r="81" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B81" s="7"/>
       <c r="C81" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D81" s="7">
         <v>50</v>
@@ -2651,10 +2803,10 @@
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B82" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D82" s="7">
         <v>15</v>
@@ -2663,7 +2815,7 @@
     <row r="83" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B83" s="7"/>
       <c r="C83" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D83" s="7">
         <v>15</v>
@@ -2672,7 +2824,7 @@
     <row r="84" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B84" s="7"/>
       <c r="C84" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D84" s="7">
         <v>15</v>
@@ -2681,7 +2833,7 @@
     <row r="85" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B85" s="7"/>
       <c r="C85" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D85" s="7">
         <v>15</v>
@@ -2690,7 +2842,7 @@
     <row r="86" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B86" s="7"/>
       <c r="C86" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D86" s="7">
         <v>15</v>
@@ -2699,7 +2851,7 @@
     <row r="87" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B87" s="7"/>
       <c r="C87" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D87" s="7">
         <v>15</v>
@@ -2708,7 +2860,7 @@
     <row r="88" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B88" s="7"/>
       <c r="C88" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D88" s="7">
         <v>25</v>
@@ -2717,7 +2869,7 @@
     <row r="89" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B89" s="7"/>
       <c r="C89" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D89" s="7">
         <v>25</v>
@@ -2726,7 +2878,7 @@
     <row r="90" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B90" s="7"/>
       <c r="C90" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D90" s="7">
         <v>25</v>
@@ -2735,7 +2887,7 @@
     <row r="91" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B91" s="7"/>
       <c r="C91" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D91" s="7">
         <v>25</v>
@@ -2744,7 +2896,7 @@
     <row r="92" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B92" s="7"/>
       <c r="C92" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D92" s="7">
         <v>25</v>
@@ -2753,7 +2905,7 @@
     <row r="93" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B93" s="7"/>
       <c r="C93" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D93" s="7">
         <v>25</v>
@@ -2761,10 +2913,10 @@
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B94" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D94" s="7">
         <v>20</v>
@@ -2773,7 +2925,7 @@
     <row r="95" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B95" s="7"/>
       <c r="C95" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D95" s="7">
         <v>25</v>
@@ -2782,7 +2934,7 @@
     <row r="96" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B96" s="7"/>
       <c r="C96" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D96" s="7">
         <v>25</v>
@@ -2791,7 +2943,7 @@
     <row r="97" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B97" s="7"/>
       <c r="C97" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D97" s="7">
         <v>25</v>
@@ -2800,7 +2952,7 @@
     <row r="98" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B98" s="7"/>
       <c r="C98" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D98" s="7">
         <v>25</v>
@@ -2809,7 +2961,7 @@
     <row r="99" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B99" s="7"/>
       <c r="C99" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D99" s="7">
         <v>25</v>
@@ -2818,7 +2970,7 @@
     <row r="100" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B100" s="7"/>
       <c r="C100" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D100" s="7">
         <v>30</v>
@@ -2827,7 +2979,7 @@
     <row r="101" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B101" s="7"/>
       <c r="C101" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D101" s="7">
         <v>30</v>
@@ -2836,7 +2988,7 @@
     <row r="102" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B102" s="7"/>
       <c r="C102" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D102" s="7">
         <v>30</v>
@@ -2845,7 +2997,7 @@
     <row r="103" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B103" s="7"/>
       <c r="C103" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D103" s="7">
         <v>30</v>
@@ -2854,7 +3006,7 @@
     <row r="104" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B104" s="7"/>
       <c r="C104" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D104" s="7">
         <v>35</v>
@@ -2863,7 +3015,7 @@
     <row r="105" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B105" s="7"/>
       <c r="C105" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D105" s="7">
         <v>35</v>
@@ -2872,7 +3024,7 @@
     <row r="106" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B106" s="7"/>
       <c r="C106" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D106" s="7">
         <v>40</v>
@@ -2881,7 +3033,7 @@
     <row r="107" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B107" s="7"/>
       <c r="C107" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D107" s="7">
         <v>50</v>
@@ -2890,7 +3042,7 @@
     <row r="108" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B108" s="7"/>
       <c r="C108" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D108" s="7">
         <v>50</v>
@@ -2898,10 +3050,10 @@
     </row>
     <row r="109" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B109" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D109" s="7">
         <v>45</v>
@@ -2910,7 +3062,7 @@
     <row r="110" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B110" s="7"/>
       <c r="C110" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D110" s="7">
         <v>45</v>
@@ -2919,7 +3071,7 @@
     <row r="111" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B111" s="7"/>
       <c r="C111" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D111" s="7">
         <v>50</v>
@@ -2928,7 +3080,7 @@
     <row r="112" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B112" s="7"/>
       <c r="C112" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D112" s="7">
         <v>50</v>
@@ -2936,10 +3088,10 @@
     </row>
     <row r="113" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B113" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D113" s="7">
         <v>30</v>
@@ -2948,7 +3100,7 @@
     <row r="114" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B114" s="7"/>
       <c r="C114" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D114" s="7">
         <v>30</v>
@@ -2957,7 +3109,7 @@
     <row r="115" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B115" s="7"/>
       <c r="C115" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D115" s="7">
         <v>30</v>
@@ -2966,7 +3118,7 @@
     <row r="116" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B116" s="7"/>
       <c r="C116" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D116" s="7">
         <v>30</v>
@@ -2975,7 +3127,7 @@
     <row r="117" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B117" s="7"/>
       <c r="C117" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D117" s="7">
         <v>30</v>
@@ -2984,7 +3136,7 @@
     <row r="118" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B118" s="7"/>
       <c r="C118" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D118" s="7">
         <v>50</v>
@@ -2993,7 +3145,7 @@
     <row r="119" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B119" s="7"/>
       <c r="C119" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D119" s="7">
         <v>50</v>
@@ -3002,7 +3154,7 @@
     <row r="120" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B120" s="7"/>
       <c r="C120" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D120" s="7">
         <v>50</v>
@@ -3011,7 +3163,7 @@
     <row r="121" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B121" s="7"/>
       <c r="C121" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D121" s="7">
         <v>50</v>
@@ -3019,10 +3171,10 @@
     </row>
     <row r="122" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B122" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D122" s="7">
         <v>30</v>
@@ -3031,7 +3183,7 @@
     <row r="123" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B123" s="7"/>
       <c r="C123" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D123" s="7">
         <v>35</v>
@@ -3040,7 +3192,7 @@
     <row r="124" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B124" s="7"/>
       <c r="C124" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D124" s="7">
         <v>45</v>
@@ -3049,7 +3201,7 @@
     <row r="125" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B125" s="7"/>
       <c r="C125" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D125" s="7">
         <v>45</v>
@@ -3058,7 +3210,7 @@
     <row r="126" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B126" s="7"/>
       <c r="C126" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D126" s="7">
         <v>50</v>
@@ -3066,10 +3218,10 @@
     </row>
     <row r="127" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B127" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D127" s="7">
         <v>55</v>
@@ -3078,7 +3230,7 @@
     <row r="128" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B128" s="7"/>
       <c r="C128" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D128" s="7">
         <v>55</v>
@@ -3087,7 +3239,7 @@
     <row r="129" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B129" s="7"/>
       <c r="C129" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D129" s="7">
         <v>60</v>
@@ -3096,7 +3248,7 @@
     <row r="130" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B130" s="7"/>
       <c r="C130" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D130" s="7">
         <v>60</v>
@@ -3105,7 +3257,7 @@
     <row r="131" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B131" s="7"/>
       <c r="C131" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D131" s="7">
         <v>65</v>
@@ -3114,7 +3266,7 @@
     <row r="132" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B132" s="7"/>
       <c r="C132" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D132" s="7">
         <v>65</v>
@@ -3123,7 +3275,7 @@
     <row r="133" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B133" s="7"/>
       <c r="C133" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D133" s="7">
         <v>70</v>
@@ -3132,7 +3284,7 @@
     <row r="134" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B134" s="7"/>
       <c r="C134" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D134" s="7">
         <v>70</v>
@@ -3141,7 +3293,7 @@
     <row r="135" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B135" s="7"/>
       <c r="C135" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D135" s="7">
         <v>70</v>
@@ -3149,10 +3301,10 @@
     </row>
     <row r="136" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B136" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D136" s="7">
         <v>10</v>
@@ -3161,7 +3313,7 @@
     <row r="137" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B137" s="7"/>
       <c r="C137" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D137" s="7">
         <v>15</v>
@@ -3170,7 +3322,7 @@
     <row r="138" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B138" s="7"/>
       <c r="C138" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D138" s="7">
         <v>15</v>
@@ -3179,7 +3331,7 @@
     <row r="139" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B139" s="7"/>
       <c r="C139" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D139" s="7">
         <v>25</v>
@@ -3188,7 +3340,7 @@
     <row r="140" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B140" s="7"/>
       <c r="C140" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D140" s="7">
         <v>25</v>
@@ -3197,7 +3349,7 @@
     <row r="141" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B141" s="7"/>
       <c r="C141" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D141" s="7">
         <v>30</v>
@@ -3206,7 +3358,7 @@
     <row r="142" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B142" s="7"/>
       <c r="C142" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D142" s="7">
         <v>30</v>
@@ -3215,7 +3367,7 @@
     <row r="143" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B143" s="7"/>
       <c r="C143" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D143" s="7">
         <v>30</v>
@@ -3224,7 +3376,7 @@
     <row r="144" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B144" s="7"/>
       <c r="C144" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D144" s="7">
         <v>30</v>
@@ -3233,7 +3385,7 @@
     <row r="145" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B145" s="7"/>
       <c r="C145" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D145" s="7">
         <v>30</v>
@@ -3242,7 +3394,7 @@
     <row r="146" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B146" s="7"/>
       <c r="C146" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D146" s="7">
         <v>30</v>
@@ -3251,7 +3403,7 @@
     <row r="147" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B147" s="7"/>
       <c r="C147" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D147" s="7">
         <v>30</v>
@@ -3260,7 +3412,7 @@
     <row r="148" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B148" s="7"/>
       <c r="C148" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D148" s="7">
         <v>35</v>
@@ -3269,7 +3421,7 @@
     <row r="149" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B149" s="7"/>
       <c r="C149" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D149" s="7">
         <v>40</v>
@@ -3277,10 +3429,10 @@
     </row>
     <row r="150" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B150" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C150" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D150" s="7">
         <v>5</v>
@@ -3289,7 +3441,7 @@
     <row r="151" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B151" s="7"/>
       <c r="C151" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D151" s="7">
         <v>10</v>
@@ -3298,7 +3450,7 @@
     <row r="152" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B152" s="7"/>
       <c r="C152" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D152" s="7">
         <v>10</v>
@@ -3307,7 +3459,7 @@
     <row r="153" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B153" s="7"/>
       <c r="C153" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D153" s="7">
         <v>10</v>
@@ -3315,10 +3467,10 @@
     </row>
     <row r="154" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B154" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D154" s="7">
         <v>60</v>
@@ -3327,7 +3479,7 @@
     <row r="155" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B155" s="7"/>
       <c r="C155" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D155" s="7">
         <v>65</v>
@@ -3336,7 +3488,7 @@
     <row r="156" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B156" s="7"/>
       <c r="C156" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D156" s="7">
         <v>65</v>
@@ -3345,7 +3497,7 @@
     <row r="157" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B157" s="7"/>
       <c r="C157" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D157" s="7">
         <v>65</v>
@@ -3354,7 +3506,7 @@
     <row r="158" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B158" s="7"/>
       <c r="C158" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D158" s="7">
         <v>65</v>
@@ -3363,7 +3515,7 @@
     <row r="159" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B159" s="7"/>
       <c r="C159" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D159" s="7">
         <v>65</v>
@@ -3371,10 +3523,10 @@
     </row>
     <row r="160" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B160" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C160" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D160" s="7">
         <v>15</v>
@@ -3383,7 +3535,7 @@
     <row r="161" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B161" s="7"/>
       <c r="C161" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D161" s="7">
         <v>20</v>
@@ -3392,7 +3544,7 @@
     <row r="162" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B162" s="7"/>
       <c r="C162" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D162" s="7">
         <v>20</v>
@@ -3401,7 +3553,7 @@
     <row r="163" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B163" s="7"/>
       <c r="C163" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D163" s="7">
         <v>25</v>
@@ -3410,7 +3562,7 @@
     <row r="164" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B164" s="7"/>
       <c r="C164" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D164" s="7">
         <v>35</v>
@@ -3419,7 +3571,7 @@
     <row r="165" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B165" s="7"/>
       <c r="C165" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D165" s="7">
         <v>25</v>
@@ -3428,7 +3580,7 @@
     <row r="166" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B166" s="7"/>
       <c r="C166" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D166" s="7">
         <v>35</v>
@@ -3437,7 +3589,7 @@
     <row r="167" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B167" s="7"/>
       <c r="C167" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D167" s="7">
         <v>30</v>
@@ -3446,7 +3598,7 @@
     <row r="168" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B168" s="7"/>
       <c r="C168" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D168" s="7">
         <v>25</v>
@@ -3455,7 +3607,7 @@
     <row r="169" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B169" s="7"/>
       <c r="C169" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D169" s="7">
         <v>25</v>
@@ -3463,10 +3615,10 @@
     </row>
     <row r="170" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B170" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C170" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D170" s="7">
         <v>20</v>
@@ -3475,7 +3627,7 @@
     <row r="171" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B171" s="7"/>
       <c r="C171" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D171" s="7">
         <v>25</v>
@@ -3484,7 +3636,7 @@
     <row r="172" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B172" s="7"/>
       <c r="C172" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D172" s="7">
         <v>25</v>
@@ -3493,7 +3645,7 @@
     <row r="173" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B173" s="7"/>
       <c r="C173" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D173" s="7">
         <v>30</v>
@@ -3502,7 +3654,7 @@
     <row r="174" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B174" s="7"/>
       <c r="C174" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D174" s="7">
         <v>40</v>
@@ -3511,7 +3663,7 @@
     <row r="175" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B175" s="7"/>
       <c r="C175" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D175" s="7">
         <v>30</v>
@@ -3520,37 +3672,1401 @@
     <row r="176" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B176" s="7"/>
       <c r="C176" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D176" s="7">
         <v>40</v>
       </c>
     </row>
-    <row r="177" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B177" s="7"/>
       <c r="C177" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D177" s="7">
         <v>35</v>
       </c>
     </row>
-    <row r="178" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B178" s="7"/>
       <c r="C178" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D178" s="7">
         <v>30</v>
       </c>
     </row>
-    <row r="179" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B179" s="7"/>
       <c r="C179" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D179" s="7">
         <v>30</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A183" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="C183" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D183" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E183" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G183" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A184" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B184" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="C184" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D184" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E184" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G184" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A185" s="7"/>
+      <c r="B185" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="D185" s="7"/>
+      <c r="E185" s="7"/>
+      <c r="G185" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H185" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="I185" s="2">
+        <v>100</v>
+      </c>
+      <c r="J185" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="L185" s="2">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A186" s="7"/>
+      <c r="B186" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="D186" s="7"/>
+      <c r="E186" s="7"/>
+      <c r="H186" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="I186" s="2">
+        <v>5</v>
+      </c>
+      <c r="J186" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="L186" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A187" s="7"/>
+      <c r="B187" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="D187" s="7"/>
+      <c r="E187" s="7"/>
+      <c r="H187" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="I187" s="2">
+        <v>2000</v>
+      </c>
+      <c r="J187" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="L187" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B188" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="H188" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="I188" s="2">
+        <v>2000</v>
+      </c>
+      <c r="J188" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="L188" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B189" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="H189" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="I189" s="2">
+        <v>1000</v>
+      </c>
+      <c r="J189" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="L189" s="2">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B190" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="H190" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="I190" s="2">
+        <v>500</v>
+      </c>
+      <c r="J190" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="L190" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B191" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="H191" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="I191" s="2">
+        <v>15000</v>
+      </c>
+      <c r="J191" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="K191" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="L191" s="2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B192" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="H192" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="I192" s="2">
+        <v>10</v>
+      </c>
+      <c r="J192" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="L192" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="193" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B193" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="H193" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="I193" s="2">
+        <v>10</v>
+      </c>
+      <c r="J193" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="L193" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="194" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B194" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="H194" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="I194" s="2">
+        <v>10</v>
+      </c>
+      <c r="J194" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="L194" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="195" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B195" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="H195" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="I195" s="2">
+        <v>1000</v>
+      </c>
+      <c r="J195" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="L195" s="2">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="196" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B196" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="H196" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="I196" s="2">
+        <v>20</v>
+      </c>
+      <c r="J196" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="L196" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="197" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B197" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="H197" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="I197" s="2">
+        <v>20</v>
+      </c>
+      <c r="J197" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="L197" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="198" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B198" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="H198" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="I198" s="2">
+        <v>10</v>
+      </c>
+      <c r="J198" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="L198" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="199" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B199" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="H199" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="I199" s="2">
+        <v>1000</v>
+      </c>
+      <c r="J199" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="L199" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="200" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B200" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="H200" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="I200" s="2">
+        <v>12000</v>
+      </c>
+      <c r="J200" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="K200" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="L200" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="201" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B201" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="H201" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="I201" s="2">
+        <v>20</v>
+      </c>
+      <c r="J201" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="L201" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="202" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B202" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="H202" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="I202" s="2">
+        <v>20</v>
+      </c>
+      <c r="J202" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="L202" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="203" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B203" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="H203" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="I203" s="2">
+        <v>20</v>
+      </c>
+      <c r="J203" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="L203" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="204" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B204" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="H204" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="I204" s="2">
+        <v>20</v>
+      </c>
+      <c r="J204" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="L204" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="205" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B205" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="H205" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="I205" s="2">
+        <v>20</v>
+      </c>
+      <c r="J205" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="L205" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="206" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B206" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="H206" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="I206" s="2">
+        <v>20</v>
+      </c>
+      <c r="J206" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="L206" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="207" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B207" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="H207" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="I207" s="2">
+        <v>400</v>
+      </c>
+      <c r="J207" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="L207" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="208" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B208" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="H208" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="I208" s="2">
+        <v>400</v>
+      </c>
+      <c r="J208" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="L208" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="209" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B209" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="H209" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="I209" s="2">
+        <v>400</v>
+      </c>
+      <c r="J209" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="L209" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="210" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B210" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="H210" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="I210" s="2">
+        <v>400</v>
+      </c>
+      <c r="J210" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="L210" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="211" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B211" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="H211" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="I211" s="2">
+        <v>400</v>
+      </c>
+      <c r="J211" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="L211" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="212" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B212" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="H212" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="I212" s="2">
+        <v>400</v>
+      </c>
+      <c r="J212" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="L212" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="213" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B213" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="H213" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="I213" s="2">
+        <v>400</v>
+      </c>
+      <c r="J213" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="L213" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="214" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B214" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="H214" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="I214" s="2">
+        <v>500</v>
+      </c>
+      <c r="J214" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="L214" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="215" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B215" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="H215" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="I215" s="2">
+        <v>15</v>
+      </c>
+      <c r="J215" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="L215" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="216" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B216" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="H216" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="I216" s="2">
+        <v>300</v>
+      </c>
+      <c r="J216" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="L216" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="217" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B217" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="H217" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="I217" s="2">
+        <v>30</v>
+      </c>
+      <c r="J217" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="L217" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="218" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B218" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="H218" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="I218" s="2">
+        <v>10</v>
+      </c>
+      <c r="J218" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="L218" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="219" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B219" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="H219" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="I219" s="2">
+        <v>1200</v>
+      </c>
+      <c r="J219" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="K219" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="L219" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="220" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B220" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="H220" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="I220" s="2">
+        <v>20</v>
+      </c>
+      <c r="J220" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="L220" s="2">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="221" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B221" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="H221" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="I221" s="2">
+        <v>10</v>
+      </c>
+      <c r="J221" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="L221" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="222" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B222" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="H222" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="I222" s="2">
+        <v>5000</v>
+      </c>
+      <c r="J222" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="L222" s="2">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="223" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B223" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="H223" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="I223" s="2">
+        <v>10</v>
+      </c>
+      <c r="J223" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="L223" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="224" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B224" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="H224" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="I224" s="2">
+        <v>100</v>
+      </c>
+      <c r="J224" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="L224" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="225" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B225" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="H225" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="I225" s="2">
+        <v>100</v>
+      </c>
+      <c r="J225" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="L225" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="226" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B226" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="H226" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="I226" s="2">
+        <v>50</v>
+      </c>
+      <c r="J226" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="L226" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="227" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B227" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="H227" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="I227" s="2">
+        <v>50</v>
+      </c>
+      <c r="J227" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="L227" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="228" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B228" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="H228" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="I228" s="2">
+        <v>30</v>
+      </c>
+      <c r="J228" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="L228" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="229" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B229" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="H229" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="I229" s="2">
+        <v>5000</v>
+      </c>
+      <c r="J229" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="L229" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="230" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B230" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="H230" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="I230" s="2">
+        <v>30</v>
+      </c>
+      <c r="J230" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="L230" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="231" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B231" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="H231" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="I231" s="2">
+        <v>20</v>
+      </c>
+      <c r="J231" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="L231" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="232" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B232" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="H232" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="I232" s="2">
+        <v>50</v>
+      </c>
+      <c r="J232" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="L232" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="233" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B233" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="H233" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="I233" s="2">
+        <v>1500</v>
+      </c>
+      <c r="J233" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="K233" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="L233" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="234" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B234" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="H234" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="I234" s="2">
+        <v>500</v>
+      </c>
+      <c r="J234" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="L234" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="235" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B235" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="H235" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="I235" s="2">
+        <v>20</v>
+      </c>
+      <c r="J235" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="L235" s="2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="236" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B236" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="H236" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="I236" s="2">
+        <v>20</v>
+      </c>
+      <c r="J236" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="L236" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="237" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B237" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="H237" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="I237" s="2">
+        <v>20</v>
+      </c>
+      <c r="J237" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="L237" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="238" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B238" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="H238" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="I238" s="2">
+        <v>20</v>
+      </c>
+      <c r="J238" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="L238" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="239" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B239" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="H239" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="I239" s="2">
+        <v>20</v>
+      </c>
+      <c r="J239" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="L239" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="240" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B240" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="H240" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="I240" s="2">
+        <v>20</v>
+      </c>
+      <c r="J240" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="L240" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="241" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B241" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="H241" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="I241" s="2">
+        <v>300</v>
+      </c>
+      <c r="J241" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="L241" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="242" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B242" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="H242" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="I242" s="2">
+        <v>600</v>
+      </c>
+      <c r="J242" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="L242" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="243" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B243" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="H243" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="I243" s="2">
+        <v>2000</v>
+      </c>
+      <c r="J243" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="L243" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="244" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B244" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="H244" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="I244" s="2">
+        <v>1000</v>
+      </c>
+      <c r="J244" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="L244" s="2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="245" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B245" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="H245" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="I245" s="2">
+        <v>1000</v>
+      </c>
+      <c r="J245" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="L245" s="2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="246" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B246" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H246" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="I246" s="2">
+        <v>2000</v>
+      </c>
+      <c r="J246" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="L246" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="247" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B247" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="H247" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="I247" s="2">
+        <v>2000</v>
+      </c>
+      <c r="J247" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="L247" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="248" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B248" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="H248" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="I248" s="2">
+        <v>2500</v>
+      </c>
+      <c r="J248" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="L248" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="249" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B249" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="H249" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="I249" s="2">
+        <v>2000</v>
+      </c>
+      <c r="J249" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="L249" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="250" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B250" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="H250" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="I250" s="2">
+        <v>600</v>
+      </c>
+      <c r="J250" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="L250" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="251" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B251" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="H251" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="I251" s="2">
+        <v>600</v>
+      </c>
+      <c r="J251" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="L251" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="252" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B252" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="H252" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="I252" s="2">
+        <v>250</v>
+      </c>
+      <c r="J252" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="L252" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="253" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B253" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="H253" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="I253" s="2">
+        <v>30</v>
+      </c>
+      <c r="J253" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="L253" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="254" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B254" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="H254" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="I254" s="2">
+        <v>30</v>
+      </c>
+      <c r="J254" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="L254" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="255" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B255" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="H255" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="I255" s="2">
+        <v>100</v>
+      </c>
+      <c r="J255" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="L255" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="256" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B256" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="H256" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="I256" s="2">
+        <v>50</v>
+      </c>
+      <c r="J256" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="L256" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="257" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B257" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="H257" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="I257" s="2">
+        <v>30</v>
+      </c>
+      <c r="J257" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="L257" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="258" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B258" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="H258" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="I258" s="2">
+        <v>30</v>
+      </c>
+      <c r="J258" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="L258" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="259" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B259" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="H259" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="I259" s="2">
+        <v>50</v>
+      </c>
+      <c r="J259" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="L259" s="2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="260" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B260" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="H260" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="I260" s="2">
+        <v>50</v>
+      </c>
+      <c r="J260" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="L260" s="2">
+        <v>500</v>
       </c>
     </row>
   </sheetData>

--- a/project/表單欄位規劃.xlsx
+++ b/project/表單欄位規劃.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="585">
   <si>
     <t>EMAIL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -220,10 +220,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>菜色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>數量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -240,10 +236,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>or_menu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>or_quantity</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -276,10 +268,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>豬肉漢堡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>店長</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -296,14 +284,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>會員編號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>製作中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>o201809250001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -349,22 +329,6 @@
   </si>
   <si>
     <t>無會員</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>o201809270009</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鍋燒麵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鮪魚三民治</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CustomerId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -436,10 +400,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用完</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>stsatus</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1006,7 +966,319 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>庫存數量</t>
+    <t>煎蛋吐司</t>
+  </si>
+  <si>
+    <t>起司吐司</t>
+  </si>
+  <si>
+    <t>蔬菜吐司</t>
+  </si>
+  <si>
+    <t>肉鬆吐司</t>
+  </si>
+  <si>
+    <t>火腿吐司</t>
+  </si>
+  <si>
+    <t>豬肉吐司</t>
+  </si>
+  <si>
+    <t>培根吐司</t>
+  </si>
+  <si>
+    <t>鮪魚吐司</t>
+  </si>
+  <si>
+    <t>薯餅吐司</t>
+  </si>
+  <si>
+    <t>香雞吐司</t>
+  </si>
+  <si>
+    <t>法國土司</t>
+  </si>
+  <si>
+    <t>燻雞吐司</t>
+  </si>
+  <si>
+    <t>里肌吐司</t>
+  </si>
+  <si>
+    <t>卡啦吐司</t>
+  </si>
+  <si>
+    <t>勁辣吐司</t>
+  </si>
+  <si>
+    <t>吐司</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>食材名稱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ma_name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛋餅皮</t>
+  </si>
+  <si>
+    <t>油</t>
+  </si>
+  <si>
+    <t>肉鬆</t>
+  </si>
+  <si>
+    <t>九層塔</t>
+  </si>
+  <si>
+    <t>玉米粒</t>
+  </si>
+  <si>
+    <t>蔬菜</t>
+  </si>
+  <si>
+    <t>火腿</t>
+  </si>
+  <si>
+    <t>豬肉排</t>
+  </si>
+  <si>
+    <t>美乃滋</t>
+  </si>
+  <si>
+    <t>番茄</t>
+  </si>
+  <si>
+    <t>香雞排</t>
+  </si>
+  <si>
+    <t>照燒豬肉片</t>
+  </si>
+  <si>
+    <t>里肌肉片</t>
+  </si>
+  <si>
+    <t>厚豬排</t>
+  </si>
+  <si>
+    <t>卡啦雞腿排</t>
+  </si>
+  <si>
+    <t>勁辣雞腿排</t>
+  </si>
+  <si>
+    <t>草莓醬</t>
+  </si>
+  <si>
+    <t>花生醬</t>
+  </si>
+  <si>
+    <t>巧克力醬</t>
+  </si>
+  <si>
+    <t>藍莓醬</t>
+  </si>
+  <si>
+    <t>抹茶醬</t>
+  </si>
+  <si>
+    <t>奶酥醬</t>
+  </si>
+  <si>
+    <t>奶油</t>
+  </si>
+  <si>
+    <t>厚片</t>
+  </si>
+  <si>
+    <t>起司絲</t>
+  </si>
+  <si>
+    <t>吐司</t>
+  </si>
+  <si>
+    <t>小黃瓜</t>
+  </si>
+  <si>
+    <t>細薯條</t>
+  </si>
+  <si>
+    <t>小雞塊</t>
+  </si>
+  <si>
+    <t>寬薯條</t>
+  </si>
+  <si>
+    <t>魚板</t>
+  </si>
+  <si>
+    <t>貢丸</t>
+  </si>
+  <si>
+    <t>小白菜</t>
+  </si>
+  <si>
+    <t>沙茶醬</t>
+  </si>
+  <si>
+    <t>泡麵</t>
+  </si>
+  <si>
+    <t>冬粉</t>
+  </si>
+  <si>
+    <t>雞絲麵</t>
+  </si>
+  <si>
+    <t>烏龍麵</t>
+  </si>
+  <si>
+    <t>意麵</t>
+  </si>
+  <si>
+    <t>紅茶包</t>
+  </si>
+  <si>
+    <t>奶精</t>
+  </si>
+  <si>
+    <t>鮮奶</t>
+  </si>
+  <si>
+    <t>咖啡粉</t>
+  </si>
+  <si>
+    <t>阿華田粉</t>
+  </si>
+  <si>
+    <t>蔓越莓汁</t>
+  </si>
+  <si>
+    <t>醬油</t>
+  </si>
+  <si>
+    <t>醬油膏</t>
+  </si>
+  <si>
+    <t>辣椒醬</t>
+  </si>
+  <si>
+    <t>番茄醬</t>
+  </si>
+  <si>
+    <t>胡椒粉</t>
+  </si>
+  <si>
+    <t>小紙盒</t>
+  </si>
+  <si>
+    <t>中紙盒</t>
+  </si>
+  <si>
+    <t>紙袋</t>
+  </si>
+  <si>
+    <t>紙碗</t>
+  </si>
+  <si>
+    <t>中紙杯</t>
+  </si>
+  <si>
+    <t>大紙杯</t>
+  </si>
+  <si>
+    <t>小環保袋</t>
+  </si>
+  <si>
+    <t>中環保袋</t>
+  </si>
+  <si>
+    <t>蛋</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>籃</t>
+  </si>
+  <si>
+    <t>顆</t>
+  </si>
+  <si>
+    <t>包</t>
+  </si>
+  <si>
+    <t>張</t>
+  </si>
+  <si>
+    <t>罐</t>
+  </si>
+  <si>
+    <t>cc</t>
+  </si>
+  <si>
+    <t>克</t>
+  </si>
+  <si>
+    <t>2500克6顆</t>
+  </si>
+  <si>
+    <t>片</t>
+  </si>
+  <si>
+    <t>袋</t>
+  </si>
+  <si>
+    <t>個</t>
+  </si>
+  <si>
+    <t>盒</t>
+  </si>
+  <si>
+    <t>100克1顆</t>
+  </si>
+  <si>
+    <t>200克1根</t>
+  </si>
+  <si>
+    <t>根</t>
+  </si>
+  <si>
+    <t>塊</t>
+  </si>
+  <si>
+    <t>30克1把</t>
+  </si>
+  <si>
+    <t>箱</t>
+  </si>
+  <si>
+    <t>進貨單位</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用單位</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用完</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>進貨成本</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ma_001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ma_002</t>
+  </si>
+  <si>
+    <t>每天預定銷售數量</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1014,297 +1286,685 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>這好像要寫一些公式算一下….</t>
+    <t>每日剩餘數量</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>煎蛋吐司</t>
-  </si>
-  <si>
-    <t>起司吐司</t>
-  </si>
-  <si>
-    <t>蔬菜吐司</t>
-  </si>
-  <si>
-    <t>肉鬆吐司</t>
-  </si>
-  <si>
-    <t>火腿吐司</t>
-  </si>
-  <si>
-    <t>豬肉吐司</t>
-  </si>
-  <si>
-    <t>培根吐司</t>
-  </si>
-  <si>
-    <t>鮪魚吐司</t>
-  </si>
-  <si>
-    <t>薯餅吐司</t>
-  </si>
-  <si>
-    <t>香雞吐司</t>
-  </si>
-  <si>
-    <t>法國土司</t>
-  </si>
-  <si>
-    <t>燻雞吐司</t>
-  </si>
-  <si>
-    <t>里肌吐司</t>
-  </si>
-  <si>
-    <t>卡啦吐司</t>
-  </si>
-  <si>
-    <t>勁辣吐司</t>
-  </si>
-  <si>
-    <t>吐司</t>
+    <t>menu_daysell</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>食材名稱</t>
+    <t>menu_daylave</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>ma_name</t>
+    <t>庫存計算數量</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>蛋餅皮</t>
-  </si>
-  <si>
-    <t>油</t>
-  </si>
-  <si>
-    <t>肉鬆</t>
-  </si>
-  <si>
-    <t>九層塔</t>
-  </si>
-  <si>
-    <t>玉米粒</t>
-  </si>
-  <si>
-    <t>蔬菜</t>
-  </si>
-  <si>
-    <t>火腿</t>
-  </si>
-  <si>
-    <t>豬肉排</t>
-  </si>
-  <si>
-    <t>美乃滋</t>
-  </si>
-  <si>
-    <t>番茄</t>
-  </si>
-  <si>
-    <t>香雞排</t>
-  </si>
-  <si>
-    <t>照燒豬肉片</t>
-  </si>
-  <si>
-    <t>里肌肉片</t>
-  </si>
-  <si>
-    <t>厚豬排</t>
-  </si>
-  <si>
-    <t>卡啦雞腿排</t>
-  </si>
-  <si>
-    <t>勁辣雞腿排</t>
-  </si>
-  <si>
-    <t>草莓醬</t>
-  </si>
-  <si>
-    <t>花生醬</t>
-  </si>
-  <si>
-    <t>巧克力醬</t>
-  </si>
-  <si>
-    <t>藍莓醬</t>
-  </si>
-  <si>
-    <t>抹茶醬</t>
-  </si>
-  <si>
-    <t>奶酥醬</t>
-  </si>
-  <si>
-    <t>奶油</t>
-  </si>
-  <si>
-    <t>厚片</t>
-  </si>
-  <si>
-    <t>起司絲</t>
-  </si>
-  <si>
-    <t>吐司</t>
-  </si>
-  <si>
-    <t>小黃瓜</t>
-  </si>
-  <si>
-    <t>細薯條</t>
-  </si>
-  <si>
-    <t>小雞塊</t>
-  </si>
-  <si>
-    <t>寬薯條</t>
-  </si>
-  <si>
-    <t>魚板</t>
-  </si>
-  <si>
-    <t>貢丸</t>
-  </si>
-  <si>
-    <t>小白菜</t>
-  </si>
-  <si>
-    <t>沙茶醬</t>
-  </si>
-  <si>
-    <t>泡麵</t>
-  </si>
-  <si>
-    <t>冬粉</t>
-  </si>
-  <si>
-    <t>雞絲麵</t>
-  </si>
-  <si>
-    <t>烏龍麵</t>
-  </si>
-  <si>
-    <t>意麵</t>
-  </si>
-  <si>
-    <t>紅茶包</t>
-  </si>
-  <si>
-    <t>奶精</t>
-  </si>
-  <si>
-    <t>鮮奶</t>
-  </si>
-  <si>
-    <t>咖啡粉</t>
-  </si>
-  <si>
-    <t>阿華田粉</t>
-  </si>
-  <si>
-    <t>蔓越莓汁</t>
-  </si>
-  <si>
-    <t>醬油</t>
-  </si>
-  <si>
-    <t>醬油膏</t>
-  </si>
-  <si>
-    <t>辣椒醬</t>
-  </si>
-  <si>
-    <t>番茄醬</t>
-  </si>
-  <si>
-    <t>胡椒粉</t>
-  </si>
-  <si>
-    <t>小紙盒</t>
-  </si>
-  <si>
-    <t>中紙盒</t>
-  </si>
-  <si>
-    <t>紙袋</t>
-  </si>
-  <si>
-    <t>紙碗</t>
-  </si>
-  <si>
-    <t>中紙杯</t>
-  </si>
-  <si>
-    <t>大紙杯</t>
-  </si>
-  <si>
-    <t>小環保袋</t>
-  </si>
-  <si>
-    <t>中環保袋</t>
-  </si>
-  <si>
-    <t>蛋</t>
+    <t>自動計算</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>籃</t>
-  </si>
-  <si>
-    <t>顆</t>
-  </si>
-  <si>
-    <t>包</t>
-  </si>
-  <si>
-    <t>張</t>
-  </si>
-  <si>
-    <t>罐</t>
-  </si>
-  <si>
-    <t>cc</t>
-  </si>
-  <si>
-    <t>克</t>
-  </si>
-  <si>
-    <t>2500克6顆</t>
-  </si>
-  <si>
-    <t>片</t>
-  </si>
-  <si>
-    <t>袋</t>
-  </si>
-  <si>
-    <t>個</t>
-  </si>
-  <si>
-    <t>盒</t>
-  </si>
-  <si>
-    <t>100克1顆</t>
-  </si>
-  <si>
-    <t>200克1根</t>
-  </si>
-  <si>
-    <t>根</t>
-  </si>
-  <si>
-    <t>塊</t>
-  </si>
-  <si>
-    <t>30克1把</t>
-  </si>
-  <si>
-    <t>箱</t>
+    <t>這要寫一些公式算一下….</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>me_001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>me_002</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ma_003</t>
+  </si>
+  <si>
+    <t>ma_004</t>
+  </si>
+  <si>
+    <t>ma_005</t>
+  </si>
+  <si>
+    <t>ma_006</t>
+  </si>
+  <si>
+    <t>ma_007</t>
+  </si>
+  <si>
+    <t>ma_008</t>
+  </si>
+  <si>
+    <t>ma_009</t>
+  </si>
+  <si>
+    <t>ma_010</t>
+  </si>
+  <si>
+    <t>ma_011</t>
+  </si>
+  <si>
+    <t>ma_012</t>
+  </si>
+  <si>
+    <t>ma_013</t>
+  </si>
+  <si>
+    <t>ma_014</t>
+  </si>
+  <si>
+    <t>ma_015</t>
+  </si>
+  <si>
+    <t>ma_016</t>
+  </si>
+  <si>
+    <t>ma_017</t>
+  </si>
+  <si>
+    <t>ma_018</t>
+  </si>
+  <si>
+    <t>ma_019</t>
+  </si>
+  <si>
+    <t>ma_020</t>
+  </si>
+  <si>
+    <t>ma_021</t>
+  </si>
+  <si>
+    <t>ma_022</t>
+  </si>
+  <si>
+    <t>ma_023</t>
+  </si>
+  <si>
+    <t>ma_024</t>
+  </si>
+  <si>
+    <t>ma_025</t>
+  </si>
+  <si>
+    <t>ma_026</t>
+  </si>
+  <si>
+    <t>ma_027</t>
+  </si>
+  <si>
+    <t>ma_028</t>
+  </si>
+  <si>
+    <t>ma_029</t>
+  </si>
+  <si>
+    <t>ma_030</t>
+  </si>
+  <si>
+    <t>ma_031</t>
+  </si>
+  <si>
+    <t>ma_032</t>
+  </si>
+  <si>
+    <t>ma_033</t>
+  </si>
+  <si>
+    <t>ma_034</t>
+  </si>
+  <si>
+    <t>ma_035</t>
+  </si>
+  <si>
+    <t>ma_036</t>
+  </si>
+  <si>
+    <t>ma_037</t>
+  </si>
+  <si>
+    <t>ma_038</t>
+  </si>
+  <si>
+    <t>ma_039</t>
+  </si>
+  <si>
+    <t>ma_040</t>
+  </si>
+  <si>
+    <t>ma_041</t>
+  </si>
+  <si>
+    <t>ma_042</t>
+  </si>
+  <si>
+    <t>ma_043</t>
+  </si>
+  <si>
+    <t>ma_044</t>
+  </si>
+  <si>
+    <t>ma_045</t>
+  </si>
+  <si>
+    <t>ma_046</t>
+  </si>
+  <si>
+    <t>ma_047</t>
+  </si>
+  <si>
+    <t>ma_048</t>
+  </si>
+  <si>
+    <t>ma_049</t>
+  </si>
+  <si>
+    <t>ma_050</t>
+  </si>
+  <si>
+    <t>ma_051</t>
+  </si>
+  <si>
+    <t>ma_052</t>
+  </si>
+  <si>
+    <t>ma_053</t>
+  </si>
+  <si>
+    <t>ma_054</t>
+  </si>
+  <si>
+    <t>ma_055</t>
+  </si>
+  <si>
+    <t>ma_056</t>
+  </si>
+  <si>
+    <t>ma_057</t>
+  </si>
+  <si>
+    <t>ma_058</t>
+  </si>
+  <si>
+    <t>ma_059</t>
+  </si>
+  <si>
+    <t>ma_060</t>
+  </si>
+  <si>
+    <t>ma_061</t>
+  </si>
+  <si>
+    <t>ma_062</t>
+  </si>
+  <si>
+    <t>ma_063</t>
+  </si>
+  <si>
+    <t>ma_064</t>
+  </si>
+  <si>
+    <t>ma_065</t>
+  </si>
+  <si>
+    <t>ma_066</t>
+  </si>
+  <si>
+    <t>ma_067</t>
+  </si>
+  <si>
+    <t>ma_068</t>
+  </si>
+  <si>
+    <t>ma_069</t>
+  </si>
+  <si>
+    <t>ma_070</t>
+  </si>
+  <si>
+    <t>ma_071</t>
+  </si>
+  <si>
+    <t>ma_072</t>
+  </si>
+  <si>
+    <t>ma_073</t>
+  </si>
+  <si>
+    <t>ma_074</t>
+  </si>
+  <si>
+    <t>ma_075</t>
+  </si>
+  <si>
+    <t>ma_076</t>
+  </si>
+  <si>
+    <t>me_003</t>
+  </si>
+  <si>
+    <t>me_004</t>
+  </si>
+  <si>
+    <t>me_005</t>
+  </si>
+  <si>
+    <t>me_006</t>
+  </si>
+  <si>
+    <t>me_007</t>
+  </si>
+  <si>
+    <t>me_008</t>
+  </si>
+  <si>
+    <t>me_009</t>
+  </si>
+  <si>
+    <t>me_010</t>
+  </si>
+  <si>
+    <t>me_011</t>
+  </si>
+  <si>
+    <t>me_012</t>
+  </si>
+  <si>
+    <t>me_013</t>
+  </si>
+  <si>
+    <t>me_014</t>
+  </si>
+  <si>
+    <t>me_015</t>
+  </si>
+  <si>
+    <t>me_016</t>
+  </si>
+  <si>
+    <t>me_017</t>
+  </si>
+  <si>
+    <t>me_018</t>
+  </si>
+  <si>
+    <t>me_019</t>
+  </si>
+  <si>
+    <t>me_020</t>
+  </si>
+  <si>
+    <t>me_021</t>
+  </si>
+  <si>
+    <t>me_022</t>
+  </si>
+  <si>
+    <t>me_023</t>
+  </si>
+  <si>
+    <t>me_024</t>
+  </si>
+  <si>
+    <t>me_025</t>
+  </si>
+  <si>
+    <t>me_026</t>
+  </si>
+  <si>
+    <t>me_027</t>
+  </si>
+  <si>
+    <t>me_028</t>
+  </si>
+  <si>
+    <t>me_029</t>
+  </si>
+  <si>
+    <t>me_030</t>
+  </si>
+  <si>
+    <t>me_031</t>
+  </si>
+  <si>
+    <t>me_032</t>
+  </si>
+  <si>
+    <t>me_033</t>
+  </si>
+  <si>
+    <t>me_034</t>
+  </si>
+  <si>
+    <t>me_035</t>
+  </si>
+  <si>
+    <t>me_036</t>
+  </si>
+  <si>
+    <t>me_037</t>
+  </si>
+  <si>
+    <t>me_038</t>
+  </si>
+  <si>
+    <t>me_039</t>
+  </si>
+  <si>
+    <t>me_040</t>
+  </si>
+  <si>
+    <t>me_041</t>
+  </si>
+  <si>
+    <t>me_042</t>
+  </si>
+  <si>
+    <t>me_043</t>
+  </si>
+  <si>
+    <t>me_044</t>
+  </si>
+  <si>
+    <t>me_045</t>
+  </si>
+  <si>
+    <t>me_046</t>
+  </si>
+  <si>
+    <t>me_047</t>
+  </si>
+  <si>
+    <t>me_048</t>
+  </si>
+  <si>
+    <t>me_049</t>
+  </si>
+  <si>
+    <t>me_050</t>
+  </si>
+  <si>
+    <t>me_051</t>
+  </si>
+  <si>
+    <t>me_052</t>
+  </si>
+  <si>
+    <t>me_053</t>
+  </si>
+  <si>
+    <t>me_054</t>
+  </si>
+  <si>
+    <t>me_055</t>
+  </si>
+  <si>
+    <t>me_056</t>
+  </si>
+  <si>
+    <t>me_057</t>
+  </si>
+  <si>
+    <t>me_058</t>
+  </si>
+  <si>
+    <t>me_059</t>
+  </si>
+  <si>
+    <t>me_060</t>
+  </si>
+  <si>
+    <t>me_061</t>
+  </si>
+  <si>
+    <t>me_062</t>
+  </si>
+  <si>
+    <t>me_063</t>
+  </si>
+  <si>
+    <t>me_064</t>
+  </si>
+  <si>
+    <t>me_065</t>
+  </si>
+  <si>
+    <t>me_066</t>
+  </si>
+  <si>
+    <t>me_067</t>
+  </si>
+  <si>
+    <t>me_068</t>
+  </si>
+  <si>
+    <t>me_069</t>
+  </si>
+  <si>
+    <t>me_070</t>
+  </si>
+  <si>
+    <t>me_071</t>
+  </si>
+  <si>
+    <t>me_072</t>
+  </si>
+  <si>
+    <t>me_073</t>
+  </si>
+  <si>
+    <t>me_074</t>
+  </si>
+  <si>
+    <t>me_075</t>
+  </si>
+  <si>
+    <t>me_076</t>
+  </si>
+  <si>
+    <t>me_077</t>
+  </si>
+  <si>
+    <t>me_078</t>
+  </si>
+  <si>
+    <t>me_079</t>
+  </si>
+  <si>
+    <t>me_080</t>
+  </si>
+  <si>
+    <t>me_081</t>
+  </si>
+  <si>
+    <t>me_082</t>
+  </si>
+  <si>
+    <t>me_083</t>
+  </si>
+  <si>
+    <t>me_084</t>
+  </si>
+  <si>
+    <t>me_085</t>
+  </si>
+  <si>
+    <t>me_086</t>
+  </si>
+  <si>
+    <t>me_087</t>
+  </si>
+  <si>
+    <t>me_088</t>
+  </si>
+  <si>
+    <t>me_089</t>
+  </si>
+  <si>
+    <t>me_090</t>
+  </si>
+  <si>
+    <t>me_091</t>
+  </si>
+  <si>
+    <t>me_092</t>
+  </si>
+  <si>
+    <t>me_093</t>
+  </si>
+  <si>
+    <t>me_094</t>
+  </si>
+  <si>
+    <t>me_095</t>
+  </si>
+  <si>
+    <t>me_096</t>
+  </si>
+  <si>
+    <t>me_097</t>
+  </si>
+  <si>
+    <t>me_098</t>
+  </si>
+  <si>
+    <t>me_099</t>
+  </si>
+  <si>
+    <t>me_100</t>
+  </si>
+  <si>
+    <t>me_101</t>
+  </si>
+  <si>
+    <t>me_102</t>
+  </si>
+  <si>
+    <t>me_103</t>
+  </si>
+  <si>
+    <t>me_104</t>
+  </si>
+  <si>
+    <t>me_105</t>
+  </si>
+  <si>
+    <t>me_106</t>
+  </si>
+  <si>
+    <t>me_107</t>
+  </si>
+  <si>
+    <t>me_108</t>
+  </si>
+  <si>
+    <t>me_109</t>
+  </si>
+  <si>
+    <t>me_110</t>
+  </si>
+  <si>
+    <t>me_111</t>
+  </si>
+  <si>
+    <t>me_112</t>
+  </si>
+  <si>
+    <t>me_113</t>
+  </si>
+  <si>
+    <t>me_114</t>
+  </si>
+  <si>
+    <t>me_115</t>
+  </si>
+  <si>
+    <t>me_116</t>
+  </si>
+  <si>
+    <t>me_117</t>
+  </si>
+  <si>
+    <t>me_118</t>
+  </si>
+  <si>
+    <t>me_119</t>
+  </si>
+  <si>
+    <t>me_001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>me_100</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>me_043</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>me_002</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>me_063</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>me_094</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>me_119</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>me_024</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>me_055</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>me_066</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>me_009</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>me_048</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>me_029</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>me_073</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>me_005</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>me_088</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>me_103</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>me_100</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>customerid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1314,7 +1974,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1364,6 +2024,14 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="微軟正黑體"/>
       <family val="2"/>
       <charset val="136"/>
@@ -1420,7 +2088,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1442,6 +2110,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1747,10 +2421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M260"/>
+  <dimension ref="A1:M270"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G177" sqref="G177"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1777,7 +2451,7 @@
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>0</v>
@@ -1801,12 +2475,12 @@
         <v>34</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>87</v>
+        <v>584</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>25</v>
@@ -1830,27 +2504,27 @@
         <v>32</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="D4" s="7" t="s">
+      <c r="F4" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="G4" s="7">
         <v>11111</v>
@@ -1864,22 +2538,22 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G5" s="7">
         <v>22222</v>
@@ -1893,22 +2567,22 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="G6" s="7">
         <v>33333</v>
@@ -1922,22 +2596,22 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="G7" s="7">
         <v>44444</v>
@@ -1951,22 +2625,22 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="G8" s="7">
         <v>55555</v>
@@ -2022,87 +2696,87 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="B15" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>80</v>
-      </c>
       <c r="D15" s="7" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="C16" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E16" s="9" t="s">
         <v>125</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="C17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="E17" s="9" t="s">
         <v>126</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="C18" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E18" s="9" t="s">
         <v>127</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -2112,6 +2786,9 @@
       <c r="B20" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="E20" s="2" t="s">
+        <v>371</v>
+      </c>
     </row>
     <row r="21" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
@@ -2124,16 +2801,16 @@
         <v>20</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
@@ -2147,128 +2824,118 @@
         <v>49</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>50</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>87</v>
+        <v>53</v>
+      </c>
+      <c r="G22" s="18" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="E23" s="7">
-        <v>556</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="E23" s="7"/>
       <c r="F23" s="7" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="E24" s="7">
-        <v>87</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="E24" s="7"/>
       <c r="F24" s="7" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="E25" s="7">
+        <v>154</v>
+      </c>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="E26" s="7">
-        <v>948</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="E26" s="7"/>
       <c r="F26" s="7" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="E27" s="7">
-        <v>566</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="E27" s="7"/>
       <c r="F27" s="7" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="G27" s="7"/>
     </row>
@@ -2277,7 +2944,7 @@
         <v>22</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
@@ -2285,254 +2952,304 @@
         <v>18</v>
       </c>
       <c r="B30" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="J30" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K30" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L30" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="M30" s="4" t="s">
-        <v>88</v>
-      </c>
+      <c r="F30" s="15"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
     </row>
     <row r="31" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="I31" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="J31" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="K31" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="L31" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="M31" s="6" t="s">
-        <v>87</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="F31" s="15"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C32" s="7">
+        <v>566</v>
+      </c>
+      <c r="C32" s="17">
         <v>2</v>
       </c>
-      <c r="F32" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="H32" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="I32" s="7">
-        <v>2</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="K32" s="7">
-        <v>556</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="M32" s="7" t="s">
-        <v>70</v>
-      </c>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C33" s="7">
+        <v>567</v>
+      </c>
+      <c r="C33" s="17">
         <v>1</v>
       </c>
-      <c r="F33" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="H33" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="I33" s="7">
-        <v>1</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="K33" s="7">
-        <v>556</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="M33" s="7" t="s">
-        <v>70</v>
-      </c>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C34" s="7">
+        <v>568</v>
+      </c>
+      <c r="C34" s="17">
         <v>1</v>
       </c>
-      <c r="F34" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="H34" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="I34" s="7">
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="16"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="C35" s="17">
+        <v>3</v>
+      </c>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="16"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="C36" s="17">
+        <v>2</v>
+      </c>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="16"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="C37" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="C38" s="17">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="C39" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="C40" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="C41" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="C42" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="C43" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="C44" s="17">
+        <v>2</v>
+      </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A46" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A47" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>99</v>
+      <c r="A45" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="C45" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="C46" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="C47" s="17">
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="7"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="D48" s="11">
+      <c r="A48" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="C48" s="17">
+        <v>3</v>
+      </c>
+      <c r="F48" s="12"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="C49" s="17">
         <v>1</v>
       </c>
-      <c r="F48" s="12"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="7"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="D49" s="11">
-        <v>5</v>
-      </c>
       <c r="F49" s="12"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C50" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="D50" s="11">
-        <v>20</v>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="C50" s="17">
+        <v>2</v>
       </c>
       <c r="F50" s="12"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C51" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="D51" s="11">
-        <v>1</v>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="C51" s="17">
+        <v>2</v>
       </c>
       <c r="F51" s="13"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
         <v>5</v>
       </c>
@@ -2541,7 +3258,7 @@
       <c r="D54" s="14"/>
       <c r="E54" s="14"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="14" t="s">
         <v>6</v>
       </c>
@@ -2558,2515 +3275,3754 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="G58" s="2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+        <v>365</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="C60" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="7"/>
+        <v>368</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="7" t="s">
+        <v>373</v>
+      </c>
       <c r="B61" s="7" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="D61" s="7">
         <v>20</v>
       </c>
-      <c r="E61" s="2" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="7"/>
-      <c r="B62" s="7"/>
+      <c r="E61" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>155</v>
+      </c>
       <c r="C62" s="7" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="D62" s="7">
         <v>25</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="7"/>
-      <c r="B63" s="7"/>
+      <c r="E62" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>155</v>
+      </c>
       <c r="C63" s="7" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="D63" s="7">
         <v>25</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="7"/>
-      <c r="B64" s="7"/>
+      <c r="E63" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>155</v>
+      </c>
       <c r="C64" s="7" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="D64" s="7">
         <v>30</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="7"/>
-      <c r="B65" s="7"/>
+      <c r="E64" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>155</v>
+      </c>
       <c r="C65" s="7" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="D65" s="7">
         <v>30</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B66" s="7"/>
+      <c r="E65" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>155</v>
+      </c>
       <c r="C66" s="7" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="D66" s="7">
         <v>30</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B67" s="7"/>
+      <c r="E66" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>155</v>
+      </c>
       <c r="C67" s="7" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="D67" s="7">
         <v>30</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B68" s="7"/>
+      <c r="E67" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>155</v>
+      </c>
       <c r="C68" s="7" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="D68" s="7">
         <v>35</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B69" s="7"/>
+      <c r="E68" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>155</v>
+      </c>
       <c r="C69" s="7" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="D69" s="7">
         <v>40</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B70" s="7"/>
+      <c r="E69" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>155</v>
+      </c>
       <c r="C70" s="7" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="D70" s="7">
         <v>45</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B71" s="7"/>
+      <c r="E70" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>155</v>
+      </c>
       <c r="C71" s="7" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="D71" s="7">
         <v>45</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E71" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="7" t="s">
+        <v>458</v>
+      </c>
       <c r="B72" s="7" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="D72" s="7">
         <v>30</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B73" s="7"/>
+      <c r="E72" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>167</v>
+      </c>
       <c r="C73" s="7" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="D73" s="7">
         <v>30</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B74" s="7"/>
+      <c r="E73" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>167</v>
+      </c>
       <c r="C74" s="7" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="D74" s="7">
         <v>30</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B75" s="7"/>
+      <c r="E74" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>167</v>
+      </c>
       <c r="C75" s="7" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="D75" s="7">
         <v>35</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B76" s="7"/>
+      <c r="E75" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>167</v>
+      </c>
       <c r="C76" s="7" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="D76" s="7">
         <v>40</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B77" s="7"/>
+      <c r="E76" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>167</v>
+      </c>
       <c r="C77" s="7" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="D77" s="7">
         <v>40</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B78" s="7"/>
+      <c r="E77" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>167</v>
+      </c>
       <c r="C78" s="7" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="D78" s="7">
         <v>45</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B79" s="7"/>
+      <c r="E78" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>167</v>
+      </c>
       <c r="C79" s="7" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="D79" s="7">
         <v>50</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B80" s="7"/>
+      <c r="E79" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>167</v>
+      </c>
       <c r="C80" s="7" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="D80" s="7">
         <v>50</v>
       </c>
-    </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B81" s="7"/>
+      <c r="E80" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>167</v>
+      </c>
       <c r="C81" s="7" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="D81" s="7">
         <v>50</v>
       </c>
-    </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E81" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="7" t="s">
+        <v>468</v>
+      </c>
       <c r="B82" s="7" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="D82" s="7">
         <v>15</v>
       </c>
-    </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B83" s="7"/>
+      <c r="E82" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>236</v>
+      </c>
       <c r="C83" s="7" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="D83" s="7">
         <v>15</v>
       </c>
-    </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B84" s="7"/>
+      <c r="E83" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>236</v>
+      </c>
       <c r="C84" s="7" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="D84" s="7">
         <v>15</v>
       </c>
-    </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B85" s="7"/>
+      <c r="E84" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>236</v>
+      </c>
       <c r="C85" s="7" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="D85" s="7">
         <v>15</v>
       </c>
-    </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B86" s="7"/>
+      <c r="E85" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>236</v>
+      </c>
       <c r="C86" s="7" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="D86" s="7">
         <v>15</v>
       </c>
-    </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B87" s="7"/>
+      <c r="E86" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>236</v>
+      </c>
       <c r="C87" s="7" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="D87" s="7">
         <v>15</v>
       </c>
-    </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B88" s="7"/>
+      <c r="E87" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>236</v>
+      </c>
       <c r="C88" s="7" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="D88" s="7">
         <v>25</v>
       </c>
-    </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B89" s="7"/>
+      <c r="E88" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>236</v>
+      </c>
       <c r="C89" s="7" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="D89" s="7">
         <v>25</v>
       </c>
-    </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B90" s="7"/>
+      <c r="E89" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>236</v>
+      </c>
       <c r="C90" s="7" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="D90" s="7">
         <v>25</v>
       </c>
-    </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B91" s="7"/>
+      <c r="E90" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>236</v>
+      </c>
       <c r="C91" s="7" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="D91" s="7">
         <v>25</v>
       </c>
-    </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B92" s="7"/>
+      <c r="E91" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>236</v>
+      </c>
       <c r="C92" s="7" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="D92" s="7">
         <v>25</v>
       </c>
-    </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B93" s="7"/>
+      <c r="E92" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>236</v>
+      </c>
       <c r="C93" s="7" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="D93" s="7">
         <v>25</v>
       </c>
-    </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E93" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="7" t="s">
+        <v>480</v>
+      </c>
       <c r="B94" s="7" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="D94" s="7">
         <v>20</v>
       </c>
-    </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B95" s="7"/>
+      <c r="E94" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>279</v>
+      </c>
       <c r="C95" s="7" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="D95" s="7">
         <v>25</v>
       </c>
-    </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B96" s="7"/>
+      <c r="E95" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>279</v>
+      </c>
       <c r="C96" s="7" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="D96" s="7">
         <v>25</v>
       </c>
-    </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B97" s="7"/>
+      <c r="E96" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>279</v>
+      </c>
       <c r="C97" s="7" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="D97" s="7">
         <v>25</v>
       </c>
-    </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B98" s="7"/>
+      <c r="E97" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>279</v>
+      </c>
       <c r="C98" s="7" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="D98" s="7">
         <v>25</v>
       </c>
-    </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B99" s="7"/>
+      <c r="E98" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>279</v>
+      </c>
       <c r="C99" s="7" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="D99" s="7">
         <v>25</v>
       </c>
-    </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B100" s="7"/>
+      <c r="E99" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>279</v>
+      </c>
       <c r="C100" s="7" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="D100" s="7">
         <v>30</v>
       </c>
-    </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B101" s="7"/>
+      <c r="E100" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>279</v>
+      </c>
       <c r="C101" s="7" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="D101" s="7">
         <v>30</v>
       </c>
-    </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B102" s="7"/>
+      <c r="E101" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>279</v>
+      </c>
       <c r="C102" s="7" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="D102" s="7">
         <v>30</v>
       </c>
-    </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B103" s="7"/>
+      <c r="E102" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>279</v>
+      </c>
       <c r="C103" s="7" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="D103" s="7">
         <v>30</v>
       </c>
-    </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B104" s="7"/>
+      <c r="E103" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>279</v>
+      </c>
       <c r="C104" s="7" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="D104" s="7">
         <v>35</v>
       </c>
-    </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B105" s="7"/>
+      <c r="E104" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>279</v>
+      </c>
       <c r="C105" s="7" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="D105" s="7">
         <v>35</v>
       </c>
-    </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B106" s="7"/>
+      <c r="E105" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>279</v>
+      </c>
       <c r="C106" s="7" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="D106" s="7">
         <v>40</v>
       </c>
-    </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B107" s="7"/>
+      <c r="E106" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>279</v>
+      </c>
       <c r="C107" s="7" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="D107" s="7">
         <v>50</v>
       </c>
-    </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B108" s="7"/>
+      <c r="E107" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>279</v>
+      </c>
       <c r="C108" s="7" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="D108" s="7">
         <v>50</v>
       </c>
-    </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E108" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="7" t="s">
+        <v>495</v>
+      </c>
       <c r="B109" s="7" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="D109" s="7">
         <v>45</v>
       </c>
-    </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B110" s="7"/>
+      <c r="E109" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>190</v>
+      </c>
       <c r="C110" s="7" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="D110" s="7">
         <v>45</v>
       </c>
-    </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B111" s="7"/>
+      <c r="E110" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>190</v>
+      </c>
       <c r="C111" s="7" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="D111" s="7">
         <v>50</v>
       </c>
-    </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B112" s="7"/>
+      <c r="E111" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>190</v>
+      </c>
       <c r="C112" s="7" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="D112" s="7">
         <v>50</v>
       </c>
-    </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E112" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="7" t="s">
+        <v>499</v>
+      </c>
       <c r="B113" s="7" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="D113" s="7">
         <v>30</v>
       </c>
-    </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B114" s="7"/>
+      <c r="E113" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>195</v>
+      </c>
       <c r="C114" s="7" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="D114" s="7">
         <v>30</v>
       </c>
-    </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B115" s="7"/>
+      <c r="E114" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>195</v>
+      </c>
       <c r="C115" s="7" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="D115" s="7">
         <v>30</v>
       </c>
-    </row>
-    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B116" s="7"/>
+      <c r="E115" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>195</v>
+      </c>
       <c r="C116" s="7" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="D116" s="7">
         <v>30</v>
       </c>
-    </row>
-    <row r="117" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B117" s="7"/>
+      <c r="E116" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>195</v>
+      </c>
       <c r="C117" s="7" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="D117" s="7">
         <v>30</v>
       </c>
-    </row>
-    <row r="118" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B118" s="7"/>
+      <c r="E117" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>195</v>
+      </c>
       <c r="C118" s="7" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="D118" s="7">
         <v>50</v>
       </c>
-    </row>
-    <row r="119" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B119" s="7"/>
+      <c r="E118" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>195</v>
+      </c>
       <c r="C119" s="7" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="D119" s="7">
         <v>50</v>
       </c>
-    </row>
-    <row r="120" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B120" s="7"/>
+      <c r="E119" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>195</v>
+      </c>
       <c r="C120" s="7" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="D120" s="7">
         <v>50</v>
       </c>
-    </row>
-    <row r="121" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B121" s="7"/>
+      <c r="E120" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>195</v>
+      </c>
       <c r="C121" s="7" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D121" s="7">
         <v>50</v>
       </c>
-    </row>
-    <row r="122" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E121" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="7" t="s">
+        <v>508</v>
+      </c>
       <c r="B122" s="7" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="D122" s="7">
         <v>30</v>
       </c>
-    </row>
-    <row r="123" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B123" s="7"/>
+      <c r="E122" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>205</v>
+      </c>
       <c r="C123" s="7" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="D123" s="7">
         <v>35</v>
       </c>
-    </row>
-    <row r="124" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B124" s="7"/>
+      <c r="E123" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>205</v>
+      </c>
       <c r="C124" s="7" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="D124" s="7">
         <v>45</v>
       </c>
-    </row>
-    <row r="125" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B125" s="7"/>
+      <c r="E124" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>205</v>
+      </c>
       <c r="C125" s="7" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="D125" s="7">
         <v>45</v>
       </c>
-    </row>
-    <row r="126" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B126" s="7"/>
+      <c r="E125" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>205</v>
+      </c>
       <c r="C126" s="7" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="D126" s="7">
         <v>50</v>
       </c>
-    </row>
-    <row r="127" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E126" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="7" t="s">
+        <v>513</v>
+      </c>
       <c r="B127" s="7" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="D127" s="7">
         <v>55</v>
       </c>
-    </row>
-    <row r="128" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B128" s="7"/>
+      <c r="E127" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>211</v>
+      </c>
       <c r="C128" s="7" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="D128" s="7">
         <v>55</v>
       </c>
-    </row>
-    <row r="129" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B129" s="7"/>
+      <c r="E128" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>211</v>
+      </c>
       <c r="C129" s="7" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="D129" s="7">
         <v>60</v>
       </c>
-    </row>
-    <row r="130" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B130" s="7"/>
+      <c r="E129" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="B130" s="7" t="s">
+        <v>211</v>
+      </c>
       <c r="C130" s="7" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="D130" s="7">
         <v>60</v>
       </c>
-    </row>
-    <row r="131" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B131" s="7"/>
+      <c r="E130" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>211</v>
+      </c>
       <c r="C131" s="7" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="D131" s="7">
         <v>65</v>
       </c>
-    </row>
-    <row r="132" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B132" s="7"/>
+      <c r="E131" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="B132" s="7" t="s">
+        <v>211</v>
+      </c>
       <c r="C132" s="7" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="D132" s="7">
         <v>65</v>
       </c>
-    </row>
-    <row r="133" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B133" s="7"/>
+      <c r="E132" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="B133" s="7" t="s">
+        <v>211</v>
+      </c>
       <c r="C133" s="7" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="D133" s="7">
         <v>70</v>
       </c>
-    </row>
-    <row r="134" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B134" s="7"/>
+      <c r="E133" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="B134" s="7" t="s">
+        <v>211</v>
+      </c>
       <c r="C134" s="7" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="D134" s="7">
         <v>70</v>
       </c>
-    </row>
-    <row r="135" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B135" s="7"/>
+      <c r="E134" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="B135" s="7" t="s">
+        <v>211</v>
+      </c>
       <c r="C135" s="7" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="D135" s="7">
         <v>70</v>
       </c>
-    </row>
-    <row r="136" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E135" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" s="7" t="s">
+        <v>522</v>
+      </c>
       <c r="B136" s="7" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="D136" s="7">
         <v>10</v>
       </c>
-    </row>
-    <row r="137" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B137" s="7"/>
+      <c r="E136" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>221</v>
+      </c>
       <c r="C137" s="7" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="D137" s="7">
         <v>15</v>
       </c>
-    </row>
-    <row r="138" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B138" s="7"/>
+      <c r="E137" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="B138" s="7" t="s">
+        <v>221</v>
+      </c>
       <c r="C138" s="7" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="D138" s="7">
         <v>15</v>
       </c>
-    </row>
-    <row r="139" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B139" s="7"/>
+      <c r="E138" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="B139" s="7" t="s">
+        <v>221</v>
+      </c>
       <c r="C139" s="7" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="D139" s="7">
         <v>25</v>
       </c>
-    </row>
-    <row r="140" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B140" s="7"/>
+      <c r="E139" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="B140" s="7" t="s">
+        <v>221</v>
+      </c>
       <c r="C140" s="7" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="D140" s="7">
         <v>25</v>
       </c>
-    </row>
-    <row r="141" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B141" s="7"/>
+      <c r="E140" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="B141" s="7" t="s">
+        <v>221</v>
+      </c>
       <c r="C141" s="7" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="D141" s="7">
         <v>30</v>
       </c>
-    </row>
-    <row r="142" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B142" s="7"/>
+      <c r="E141" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="B142" s="7" t="s">
+        <v>221</v>
+      </c>
       <c r="C142" s="7" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="D142" s="7">
         <v>30</v>
       </c>
-    </row>
-    <row r="143" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B143" s="7"/>
+      <c r="E142" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="B143" s="7" t="s">
+        <v>221</v>
+      </c>
       <c r="C143" s="7" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="D143" s="7">
         <v>30</v>
       </c>
-    </row>
-    <row r="144" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B144" s="7"/>
+      <c r="E143" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="B144" s="7" t="s">
+        <v>221</v>
+      </c>
       <c r="C144" s="7" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D144" s="7">
         <v>30</v>
       </c>
-    </row>
-    <row r="145" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B145" s="7"/>
+      <c r="E144" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="B145" s="7" t="s">
+        <v>221</v>
+      </c>
       <c r="C145" s="7" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D145" s="7">
         <v>30</v>
       </c>
-    </row>
-    <row r="146" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B146" s="7"/>
+      <c r="E145" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="B146" s="7" t="s">
+        <v>221</v>
+      </c>
       <c r="C146" s="7" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="D146" s="7">
         <v>30</v>
       </c>
-    </row>
-    <row r="147" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B147" s="7"/>
+      <c r="E146" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="B147" s="7" t="s">
+        <v>221</v>
+      </c>
       <c r="C147" s="7" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="D147" s="7">
         <v>30</v>
       </c>
-    </row>
-    <row r="148" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B148" s="7"/>
+      <c r="E147" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="B148" s="7" t="s">
+        <v>221</v>
+      </c>
       <c r="C148" s="7" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="D148" s="7">
         <v>35</v>
       </c>
-    </row>
-    <row r="149" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B149" s="7"/>
+      <c r="E148" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="B149" s="7" t="s">
+        <v>221</v>
+      </c>
       <c r="C149" s="7" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="D149" s="7">
         <v>40</v>
       </c>
-    </row>
-    <row r="150" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E149" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" s="7" t="s">
+        <v>536</v>
+      </c>
       <c r="B150" s="7" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="C150" s="7" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="D150" s="7">
         <v>5</v>
       </c>
-    </row>
-    <row r="151" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B151" s="7"/>
+      <c r="E150" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="B151" s="7" t="s">
+        <v>237</v>
+      </c>
       <c r="C151" s="7" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="D151" s="7">
         <v>10</v>
       </c>
-    </row>
-    <row r="152" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B152" s="7"/>
+      <c r="E151" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="B152" s="7" t="s">
+        <v>237</v>
+      </c>
       <c r="C152" s="7" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="D152" s="7">
         <v>10</v>
       </c>
-    </row>
-    <row r="153" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B153" s="7"/>
+      <c r="E152" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="B153" s="7" t="s">
+        <v>237</v>
+      </c>
       <c r="C153" s="7" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="D153" s="7">
         <v>10</v>
       </c>
-    </row>
-    <row r="154" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E153" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" s="7" t="s">
+        <v>540</v>
+      </c>
       <c r="B154" s="7" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="D154" s="7">
         <v>60</v>
       </c>
-    </row>
-    <row r="155" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B155" s="7"/>
+      <c r="E154" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="B155" s="7" t="s">
+        <v>242</v>
+      </c>
       <c r="C155" s="7" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="D155" s="7">
         <v>65</v>
       </c>
-    </row>
-    <row r="156" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B156" s="7"/>
+      <c r="E155" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="B156" s="7" t="s">
+        <v>242</v>
+      </c>
       <c r="C156" s="7" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="D156" s="7">
         <v>65</v>
       </c>
-    </row>
-    <row r="157" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B157" s="7"/>
+      <c r="E156" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="B157" s="7" t="s">
+        <v>242</v>
+      </c>
       <c r="C157" s="7" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="D157" s="7">
         <v>65</v>
       </c>
-    </row>
-    <row r="158" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B158" s="7"/>
+      <c r="E157" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="B158" s="7" t="s">
+        <v>242</v>
+      </c>
       <c r="C158" s="7" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="D158" s="7">
         <v>65</v>
       </c>
-    </row>
-    <row r="159" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B159" s="7"/>
+      <c r="E158" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="B159" s="7" t="s">
+        <v>242</v>
+      </c>
       <c r="C159" s="7" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="D159" s="7">
         <v>65</v>
       </c>
-    </row>
-    <row r="160" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E159" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" s="7" t="s">
+        <v>546</v>
+      </c>
       <c r="B160" s="7" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="C160" s="7" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="D160" s="7">
         <v>15</v>
       </c>
-    </row>
-    <row r="161" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B161" s="7"/>
+      <c r="E160" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="B161" s="7" t="s">
+        <v>259</v>
+      </c>
       <c r="C161" s="7" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="D161" s="7">
         <v>20</v>
       </c>
-    </row>
-    <row r="162" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B162" s="7"/>
+      <c r="E161" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="B162" s="7" t="s">
+        <v>259</v>
+      </c>
       <c r="C162" s="7" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="D162" s="7">
         <v>20</v>
       </c>
-    </row>
-    <row r="163" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B163" s="7"/>
+      <c r="E162" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="B163" s="7" t="s">
+        <v>259</v>
+      </c>
       <c r="C163" s="7" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="D163" s="7">
         <v>25</v>
       </c>
-    </row>
-    <row r="164" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B164" s="7"/>
+      <c r="E163" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="B164" s="7" t="s">
+        <v>259</v>
+      </c>
       <c r="C164" s="7" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="D164" s="7">
         <v>35</v>
       </c>
-    </row>
-    <row r="165" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B165" s="7"/>
+      <c r="E164" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="B165" s="7" t="s">
+        <v>259</v>
+      </c>
       <c r="C165" s="7" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="D165" s="7">
         <v>25</v>
       </c>
-    </row>
-    <row r="166" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B166" s="7"/>
+      <c r="E165" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="B166" s="7" t="s">
+        <v>259</v>
+      </c>
       <c r="C166" s="7" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="D166" s="7">
         <v>35</v>
       </c>
-    </row>
-    <row r="167" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B167" s="7"/>
+      <c r="E166" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="B167" s="7" t="s">
+        <v>259</v>
+      </c>
       <c r="C167" s="7" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="D167" s="7">
         <v>30</v>
       </c>
-    </row>
-    <row r="168" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B168" s="7"/>
+      <c r="E167" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="B168" s="7" t="s">
+        <v>259</v>
+      </c>
       <c r="C168" s="7" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="D168" s="7">
         <v>25</v>
       </c>
-    </row>
-    <row r="169" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B169" s="7"/>
+      <c r="E168" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="B169" s="7" t="s">
+        <v>259</v>
+      </c>
       <c r="C169" s="7" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="D169" s="7">
         <v>25</v>
       </c>
-    </row>
-    <row r="170" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E169" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" s="7" t="s">
+        <v>556</v>
+      </c>
       <c r="B170" s="7" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="C170" s="7" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="D170" s="7">
         <v>20</v>
       </c>
-    </row>
-    <row r="171" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B171" s="7"/>
+      <c r="E170" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="B171" s="7" t="s">
+        <v>260</v>
+      </c>
       <c r="C171" s="7" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="D171" s="7">
         <v>25</v>
       </c>
-    </row>
-    <row r="172" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B172" s="7"/>
+      <c r="E171" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="B172" s="7" t="s">
+        <v>260</v>
+      </c>
       <c r="C172" s="7" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="D172" s="7">
         <v>25</v>
       </c>
-    </row>
-    <row r="173" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B173" s="7"/>
+      <c r="E172" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="B173" s="7" t="s">
+        <v>260</v>
+      </c>
       <c r="C173" s="7" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="D173" s="7">
         <v>30</v>
       </c>
-    </row>
-    <row r="174" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B174" s="7"/>
+      <c r="E173" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="B174" s="7" t="s">
+        <v>260</v>
+      </c>
       <c r="C174" s="7" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="D174" s="7">
         <v>40</v>
       </c>
-    </row>
-    <row r="175" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B175" s="7"/>
+      <c r="E174" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="B175" s="7" t="s">
+        <v>260</v>
+      </c>
       <c r="C175" s="7" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="D175" s="7">
         <v>30</v>
       </c>
-    </row>
-    <row r="176" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B176" s="7"/>
+      <c r="E175" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="B176" s="7" t="s">
+        <v>260</v>
+      </c>
       <c r="C176" s="7" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="D176" s="7">
         <v>40</v>
       </c>
+      <c r="E176" s="2">
+        <v>20</v>
+      </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B177" s="7"/>
+      <c r="A177" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="B177" s="7" t="s">
+        <v>260</v>
+      </c>
       <c r="C177" s="7" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="D177" s="7">
         <v>35</v>
       </c>
+      <c r="E177" s="2">
+        <v>20</v>
+      </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B178" s="7"/>
+      <c r="A178" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="B178" s="7" t="s">
+        <v>260</v>
+      </c>
       <c r="C178" s="7" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="D178" s="7">
         <v>30</v>
       </c>
+      <c r="E178" s="2">
+        <v>20</v>
+      </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B179" s="7"/>
+      <c r="A179" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="B179" s="7" t="s">
+        <v>260</v>
+      </c>
       <c r="C179" s="7" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="D179" s="7">
         <v>30</v>
       </c>
+      <c r="E179" s="2">
+        <v>20</v>
+      </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="183" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A183" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="C183" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D183" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E183" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B183" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="C183" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D183" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E183" s="3" t="s">
-        <v>60</v>
-      </c>
       <c r="G183" s="4" t="s">
-        <v>104</v>
+        <v>95</v>
+      </c>
+      <c r="H183" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="J183" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="L183" s="4" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="184" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A184" s="5" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="C184" s="6" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D184" s="6" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="E184" s="5" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="G184" s="6" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A185" s="7"/>
+      <c r="A185" s="7" t="s">
+        <v>363</v>
+      </c>
       <c r="B185" s="7" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="D185" s="7"/>
       <c r="E185" s="7"/>
       <c r="G185" s="2" t="s">
-        <v>105</v>
+        <v>361</v>
       </c>
       <c r="H185" s="2" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="I185" s="2">
         <v>100</v>
       </c>
       <c r="J185" s="2" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="L185" s="2">
         <v>400</v>
       </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A186" s="7"/>
+      <c r="A186" s="7" t="s">
+        <v>364</v>
+      </c>
       <c r="B186" s="7" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="D186" s="7"/>
       <c r="E186" s="7"/>
       <c r="H186" s="2" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="I186" s="2">
         <v>5</v>
       </c>
       <c r="J186" s="2" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="L186" s="2">
         <v>35</v>
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A187" s="7"/>
+      <c r="A187" s="7" t="s">
+        <v>375</v>
+      </c>
       <c r="B187" s="7" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="D187" s="7"/>
       <c r="E187" s="7"/>
       <c r="H187" s="2" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="I187" s="2">
         <v>2000</v>
       </c>
       <c r="J187" s="2" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="L187" s="2">
         <v>100</v>
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A188" s="7" t="s">
+        <v>376</v>
+      </c>
       <c r="B188" s="7" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="H188" s="2" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="I188" s="2">
         <v>2000</v>
       </c>
       <c r="J188" s="2" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="L188" s="2">
         <v>1000</v>
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A189" s="7" t="s">
+        <v>377</v>
+      </c>
       <c r="B189" s="7" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="H189" s="2" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="I189" s="2">
         <v>1000</v>
       </c>
       <c r="J189" s="2" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="L189" s="2">
         <v>800</v>
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A190" s="7" t="s">
+        <v>378</v>
+      </c>
       <c r="B190" s="7" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="H190" s="2" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="I190" s="2">
         <v>500</v>
       </c>
       <c r="J190" s="2" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="L190" s="2">
         <v>50</v>
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A191" s="7" t="s">
+        <v>379</v>
+      </c>
       <c r="B191" s="7" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="H191" s="2" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="I191" s="2">
         <v>15000</v>
       </c>
       <c r="J191" s="2" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="K191" s="2" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="L191" s="2">
         <v>180</v>
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A192" s="7" t="s">
+        <v>380</v>
+      </c>
       <c r="B192" s="7" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="H192" s="2" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="I192" s="2">
         <v>10</v>
       </c>
       <c r="J192" s="2" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="L192" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="193" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A193" s="7" t="s">
+        <v>381</v>
+      </c>
       <c r="B193" s="7" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="H193" s="2" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="I193" s="2">
         <v>10</v>
       </c>
       <c r="J193" s="2" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="L193" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="194" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A194" s="7" t="s">
+        <v>382</v>
+      </c>
       <c r="B194" s="7" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="H194" s="2" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="I194" s="2">
         <v>10</v>
       </c>
       <c r="J194" s="2" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="L194" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="195" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A195" s="7" t="s">
+        <v>383</v>
+      </c>
       <c r="B195" s="7" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="H195" s="2" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="I195" s="2">
         <v>1000</v>
       </c>
       <c r="J195" s="2" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="L195" s="2">
         <v>600</v>
       </c>
     </row>
-    <row r="196" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A196" s="7" t="s">
+        <v>384</v>
+      </c>
       <c r="B196" s="7" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="H196" s="2" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="I196" s="2">
         <v>20</v>
       </c>
       <c r="J196" s="2" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="L196" s="2">
         <v>150</v>
       </c>
     </row>
-    <row r="197" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A197" s="7" t="s">
+        <v>385</v>
+      </c>
       <c r="B197" s="7" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="H197" s="2" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="I197" s="2">
         <v>20</v>
       </c>
       <c r="J197" s="2" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="L197" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="198" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A198" s="7" t="s">
+        <v>386</v>
+      </c>
       <c r="B198" s="7" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="H198" s="2" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="I198" s="2">
         <v>10</v>
       </c>
       <c r="J198" s="2" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="L198" s="2">
         <v>30</v>
       </c>
     </row>
-    <row r="199" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A199" s="7" t="s">
+        <v>387</v>
+      </c>
       <c r="B199" s="7" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="H199" s="2" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="I199" s="2">
         <v>1000</v>
       </c>
       <c r="J199" s="2" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="L199" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="200" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A200" s="7" t="s">
+        <v>388</v>
+      </c>
       <c r="B200" s="7" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="H200" s="2" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="I200" s="2">
         <v>12000</v>
       </c>
       <c r="J200" s="2" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="K200" s="2" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="L200" s="2">
         <v>120</v>
       </c>
     </row>
-    <row r="201" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A201" s="7" t="s">
+        <v>389</v>
+      </c>
       <c r="B201" s="7" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="H201" s="2" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="I201" s="2">
         <v>20</v>
       </c>
       <c r="J201" s="2" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="L201" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="202" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A202" s="7" t="s">
+        <v>390</v>
+      </c>
       <c r="B202" s="7" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="H202" s="2" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="I202" s="2">
         <v>20</v>
       </c>
       <c r="J202" s="2" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="L202" s="2">
         <v>150</v>
       </c>
     </row>
-    <row r="203" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A203" s="7" t="s">
+        <v>391</v>
+      </c>
       <c r="B203" s="7" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="H203" s="2" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="I203" s="2">
         <v>20</v>
       </c>
       <c r="J203" s="2" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="L203" s="2">
         <v>200</v>
       </c>
     </row>
-    <row r="204" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A204" s="7" t="s">
+        <v>392</v>
+      </c>
       <c r="B204" s="7" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="H204" s="2" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="I204" s="2">
         <v>20</v>
       </c>
       <c r="J204" s="2" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="L204" s="2">
         <v>300</v>
       </c>
     </row>
-    <row r="205" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A205" s="7" t="s">
+        <v>393</v>
+      </c>
       <c r="B205" s="7" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="H205" s="2" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="I205" s="2">
         <v>20</v>
       </c>
       <c r="J205" s="2" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="L205" s="2">
         <v>300</v>
       </c>
     </row>
-    <row r="206" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A206" s="7" t="s">
+        <v>394</v>
+      </c>
       <c r="B206" s="7" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="H206" s="2" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="I206" s="2">
         <v>20</v>
       </c>
       <c r="J206" s="2" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="L206" s="2">
         <v>300</v>
       </c>
     </row>
-    <row r="207" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A207" s="7" t="s">
+        <v>395</v>
+      </c>
       <c r="B207" s="7" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="H207" s="2" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="I207" s="2">
         <v>400</v>
       </c>
       <c r="J207" s="2" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="L207" s="2">
         <v>30</v>
       </c>
     </row>
-    <row r="208" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A208" s="7" t="s">
+        <v>396</v>
+      </c>
       <c r="B208" s="7" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="H208" s="2" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="I208" s="2">
         <v>400</v>
       </c>
       <c r="J208" s="2" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="L208" s="2">
         <v>30</v>
       </c>
     </row>
-    <row r="209" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A209" s="7" t="s">
+        <v>397</v>
+      </c>
       <c r="B209" s="7" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="H209" s="2" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="I209" s="2">
         <v>400</v>
       </c>
       <c r="J209" s="2" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="L209" s="2">
         <v>30</v>
       </c>
     </row>
-    <row r="210" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A210" s="7" t="s">
+        <v>398</v>
+      </c>
       <c r="B210" s="7" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="H210" s="2" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="I210" s="2">
         <v>400</v>
       </c>
       <c r="J210" s="2" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="L210" s="2">
         <v>30</v>
       </c>
     </row>
-    <row r="211" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A211" s="7" t="s">
+        <v>399</v>
+      </c>
       <c r="B211" s="7" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="H211" s="2" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="I211" s="2">
         <v>400</v>
       </c>
       <c r="J211" s="2" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="L211" s="2">
         <v>30</v>
       </c>
     </row>
-    <row r="212" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A212" s="7" t="s">
+        <v>400</v>
+      </c>
       <c r="B212" s="7" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="H212" s="2" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="I212" s="2">
         <v>400</v>
       </c>
       <c r="J212" s="2" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="L212" s="2">
         <v>30</v>
       </c>
     </row>
-    <row r="213" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A213" s="7" t="s">
+        <v>401</v>
+      </c>
       <c r="B213" s="7" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="H213" s="2" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="I213" s="2">
         <v>400</v>
       </c>
       <c r="J213" s="2" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="L213" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="214" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A214" s="7" t="s">
+        <v>402</v>
+      </c>
       <c r="B214" s="7" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="H214" s="2" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="I214" s="2">
         <v>500</v>
       </c>
       <c r="J214" s="2" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="L214" s="2">
         <v>150</v>
       </c>
     </row>
-    <row r="215" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A215" s="7" t="s">
+        <v>403</v>
+      </c>
       <c r="B215" s="7" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="H215" s="2" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="I215" s="2">
         <v>15</v>
       </c>
       <c r="J215" s="2" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="L215" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="216" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A216" s="7" t="s">
+        <v>404</v>
+      </c>
       <c r="B216" s="7" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="H216" s="2" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="I216" s="2">
         <v>300</v>
       </c>
       <c r="J216" s="2" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="L216" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="217" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A217" s="7" t="s">
+        <v>405</v>
+      </c>
       <c r="B217" s="7" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="H217" s="2" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="I217" s="2">
         <v>30</v>
       </c>
       <c r="J217" s="2" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="L217" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="218" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A218" s="7" t="s">
+        <v>406</v>
+      </c>
       <c r="B218" s="7" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="H218" s="2" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="I218" s="2">
         <v>10</v>
       </c>
       <c r="J218" s="2" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="L218" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="219" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A219" s="7" t="s">
+        <v>407</v>
+      </c>
       <c r="B219" s="7" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="H219" s="2" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="I219" s="2">
         <v>1200</v>
       </c>
       <c r="J219" s="2" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="K219" s="2" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="L219" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="220" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A220" s="7" t="s">
+        <v>408</v>
+      </c>
       <c r="B220" s="7" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="H220" s="2" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="I220" s="2">
         <v>20</v>
       </c>
       <c r="J220" s="2" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="L220" s="2">
         <v>400</v>
       </c>
     </row>
-    <row r="221" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A221" s="7" t="s">
+        <v>409</v>
+      </c>
       <c r="B221" s="7" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="H221" s="2" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="I221" s="2">
         <v>10</v>
       </c>
       <c r="J221" s="2" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="L221" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="222" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A222" s="7" t="s">
+        <v>410</v>
+      </c>
       <c r="B222" s="7" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="H222" s="2" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="I222" s="2">
         <v>5000</v>
       </c>
       <c r="J222" s="2" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="L222" s="2">
         <v>1500</v>
       </c>
     </row>
-    <row r="223" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A223" s="7" t="s">
+        <v>411</v>
+      </c>
       <c r="B223" s="7" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="H223" s="2" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="I223" s="2">
         <v>10</v>
       </c>
       <c r="J223" s="2" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="L223" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="224" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A224" s="7" t="s">
+        <v>412</v>
+      </c>
       <c r="B224" s="7" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="H224" s="2" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="I224" s="2">
         <v>100</v>
       </c>
       <c r="J224" s="2" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="L224" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="225" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A225" s="7" t="s">
+        <v>413</v>
+      </c>
       <c r="B225" s="7" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="H225" s="2" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="I225" s="2">
         <v>100</v>
       </c>
       <c r="J225" s="2" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="L225" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="226" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A226" s="7" t="s">
+        <v>414</v>
+      </c>
       <c r="B226" s="7" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="H226" s="2" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="I226" s="2">
         <v>50</v>
       </c>
       <c r="J226" s="2" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="L226" s="2">
         <v>150</v>
       </c>
     </row>
-    <row r="227" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A227" s="7" t="s">
+        <v>415</v>
+      </c>
       <c r="B227" s="7" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="H227" s="2" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="I227" s="2">
         <v>50</v>
       </c>
       <c r="J227" s="2" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="L227" s="2">
         <v>150</v>
       </c>
     </row>
-    <row r="228" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A228" s="7" t="s">
+        <v>416</v>
+      </c>
       <c r="B228" s="7" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="H228" s="2" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="I228" s="2">
         <v>30</v>
       </c>
       <c r="J228" s="2" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="L228" s="2">
         <v>120</v>
       </c>
     </row>
-    <row r="229" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A229" s="7" t="s">
+        <v>417</v>
+      </c>
       <c r="B229" s="7" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="H229" s="2" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="I229" s="2">
         <v>5000</v>
       </c>
       <c r="J229" s="2" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="L229" s="2">
         <v>2000</v>
       </c>
     </row>
-    <row r="230" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A230" s="7" t="s">
+        <v>418</v>
+      </c>
       <c r="B230" s="7" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="H230" s="2" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="I230" s="2">
         <v>30</v>
       </c>
       <c r="J230" s="2" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="L230" s="2">
         <v>15</v>
       </c>
     </row>
-    <row r="231" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A231" s="7" t="s">
+        <v>419</v>
+      </c>
       <c r="B231" s="7" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="H231" s="2" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="I231" s="2">
         <v>20</v>
       </c>
       <c r="J231" s="2" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="L231" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="232" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A232" s="7" t="s">
+        <v>420</v>
+      </c>
       <c r="B232" s="7" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="H232" s="2" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="I232" s="2">
         <v>50</v>
       </c>
       <c r="J232" s="2" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="L232" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="233" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A233" s="7" t="s">
+        <v>421</v>
+      </c>
       <c r="B233" s="7" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="H233" s="2" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="I233" s="2">
         <v>1500</v>
       </c>
       <c r="J233" s="2" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="K233" s="2" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="L233" s="2">
         <v>150</v>
       </c>
     </row>
-    <row r="234" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A234" s="7" t="s">
+        <v>422</v>
+      </c>
       <c r="B234" s="7" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="H234" s="2" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="I234" s="2">
         <v>500</v>
       </c>
       <c r="J234" s="2" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="L234" s="2">
         <v>30</v>
       </c>
     </row>
-    <row r="235" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A235" s="7" t="s">
+        <v>423</v>
+      </c>
       <c r="B235" s="7" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="H235" s="2" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="I235" s="2">
         <v>20</v>
       </c>
       <c r="J235" s="2" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="L235" s="2">
         <v>180</v>
       </c>
     </row>
-    <row r="236" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A236" s="7" t="s">
+        <v>424</v>
+      </c>
       <c r="B236" s="7" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="H236" s="2" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="I236" s="2">
         <v>20</v>
       </c>
       <c r="J236" s="2" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="L236" s="2">
         <v>150</v>
       </c>
     </row>
-    <row r="237" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A237" s="7" t="s">
+        <v>425</v>
+      </c>
       <c r="B237" s="7" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="H237" s="2" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="I237" s="2">
         <v>20</v>
       </c>
       <c r="J237" s="2" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="L237" s="2">
         <v>200</v>
       </c>
     </row>
-    <row r="238" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A238" s="7" t="s">
+        <v>426</v>
+      </c>
       <c r="B238" s="7" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="H238" s="2" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="I238" s="2">
         <v>20</v>
       </c>
       <c r="J238" s="2" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="L238" s="2">
         <v>200</v>
       </c>
     </row>
-    <row r="239" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A239" s="7" t="s">
+        <v>427</v>
+      </c>
       <c r="B239" s="7" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="H239" s="2" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="I239" s="2">
         <v>20</v>
       </c>
       <c r="J239" s="2" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="L239" s="2">
         <v>200</v>
       </c>
     </row>
-    <row r="240" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A240" s="7" t="s">
+        <v>428</v>
+      </c>
       <c r="B240" s="7" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="H240" s="2" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="I240" s="2">
         <v>20</v>
       </c>
       <c r="J240" s="2" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="L240" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="241" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A241" s="7" t="s">
+        <v>429</v>
+      </c>
       <c r="B241" s="7" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="H241" s="2" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="I241" s="2">
         <v>300</v>
       </c>
       <c r="J241" s="2" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="L241" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="242" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A242" s="7" t="s">
+        <v>430</v>
+      </c>
       <c r="B242" s="7" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="H242" s="2" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="I242" s="2">
         <v>600</v>
       </c>
       <c r="J242" s="2" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="L242" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="243" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A243" s="7" t="s">
+        <v>431</v>
+      </c>
       <c r="B243" s="7" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="H243" s="2" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="I243" s="2">
         <v>2000</v>
       </c>
       <c r="J243" s="2" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="L243" s="2">
         <v>120</v>
       </c>
     </row>
-    <row r="244" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A244" s="7" t="s">
+        <v>432</v>
+      </c>
       <c r="B244" s="7" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="H244" s="2" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="I244" s="2">
         <v>1000</v>
       </c>
       <c r="J244" s="2" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="L244" s="2">
         <v>350</v>
       </c>
     </row>
-    <row r="245" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A245" s="7" t="s">
+        <v>433</v>
+      </c>
       <c r="B245" s="7" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="H245" s="2" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="I245" s="2">
         <v>1000</v>
       </c>
       <c r="J245" s="2" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="L245" s="2">
         <v>350</v>
       </c>
     </row>
-    <row r="246" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A246" s="7" t="s">
+        <v>434</v>
+      </c>
       <c r="B246" s="7" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="H246" s="2" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="I246" s="2">
         <v>2000</v>
       </c>
       <c r="J246" s="2" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="L246" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="247" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A247" s="7" t="s">
+        <v>435</v>
+      </c>
       <c r="B247" s="7" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="H247" s="2" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="I247" s="2">
         <v>2000</v>
       </c>
       <c r="J247" s="2" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="L247" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="248" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A248" s="7" t="s">
+        <v>436</v>
+      </c>
       <c r="B248" s="7" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="H248" s="2" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="I248" s="2">
         <v>2500</v>
       </c>
       <c r="J248" s="2" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="L248" s="2">
         <v>150</v>
       </c>
     </row>
-    <row r="249" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A249" s="7" t="s">
+        <v>437</v>
+      </c>
       <c r="B249" s="7" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="H249" s="2" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="I249" s="2">
         <v>2000</v>
       </c>
       <c r="J249" s="2" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="L249" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="250" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A250" s="7" t="s">
+        <v>438</v>
+      </c>
       <c r="B250" s="7" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="H250" s="2" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="I250" s="2">
         <v>600</v>
       </c>
       <c r="J250" s="2" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="L250" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="251" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A251" s="7" t="s">
+        <v>439</v>
+      </c>
       <c r="B251" s="7" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="H251" s="2" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="I251" s="2">
         <v>600</v>
       </c>
       <c r="J251" s="2" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="L251" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="252" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A252" s="7" t="s">
+        <v>440</v>
+      </c>
       <c r="B252" s="7" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="H252" s="2" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="I252" s="2">
         <v>250</v>
       </c>
       <c r="J252" s="2" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="L252" s="2">
         <v>30</v>
       </c>
     </row>
-    <row r="253" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A253" s="7" t="s">
+        <v>441</v>
+      </c>
       <c r="B253" s="7" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="H253" s="2" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="I253" s="2">
         <v>30</v>
       </c>
       <c r="J253" s="2" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="L253" s="2">
         <v>30</v>
       </c>
     </row>
-    <row r="254" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A254" s="7" t="s">
+        <v>442</v>
+      </c>
       <c r="B254" s="7" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="H254" s="2" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="I254" s="2">
         <v>30</v>
       </c>
       <c r="J254" s="2" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="L254" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="255" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A255" s="7" t="s">
+        <v>443</v>
+      </c>
       <c r="B255" s="7" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="H255" s="2" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="I255" s="2">
         <v>100</v>
       </c>
       <c r="J255" s="2" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="L255" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="256" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A256" s="7" t="s">
+        <v>444</v>
+      </c>
       <c r="B256" s="7" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="H256" s="2" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="I256" s="2">
         <v>50</v>
       </c>
       <c r="J256" s="2" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="L256" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="257" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A257" s="7" t="s">
+        <v>445</v>
+      </c>
       <c r="B257" s="7" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="H257" s="2" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="I257" s="2">
         <v>30</v>
       </c>
       <c r="J257" s="2" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="L257" s="2">
         <v>35</v>
       </c>
     </row>
-    <row r="258" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A258" s="7" t="s">
+        <v>446</v>
+      </c>
       <c r="B258" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="H258" s="2" t="s">
         <v>350</v>
-      </c>
-      <c r="H258" s="2" t="s">
-        <v>363</v>
       </c>
       <c r="I258" s="2">
         <v>30</v>
       </c>
       <c r="J258" s="2" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="L258" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="259" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A259" s="7" t="s">
+        <v>447</v>
+      </c>
       <c r="B259" s="7" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="H259" s="2" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="I259" s="2">
         <v>50</v>
       </c>
       <c r="J259" s="2" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="L259" s="2">
         <v>350</v>
       </c>
     </row>
-    <row r="260" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A260" s="7" t="s">
+        <v>448</v>
+      </c>
       <c r="B260" s="7" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="H260" s="2" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="I260" s="2">
         <v>50</v>
       </c>
       <c r="J260" s="2" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="L260" s="2">
         <v>500</v>
+      </c>
+    </row>
+    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A264" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="265" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A265" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B265" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C265" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="D265" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="266" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A266" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B266" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C266" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="D266" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A267" s="7"/>
+      <c r="B267" s="7"/>
+      <c r="C267" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D267" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A268" s="7"/>
+      <c r="B268" s="7"/>
+      <c r="C268" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D268" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C269" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D269" s="11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C270" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D270" s="11">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
